--- a/Balance.xlsx
+++ b/Balance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8775"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8775" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1317,10 +1317,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1329,19 +1329,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1349,6 +1352,24 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1368,16 +1389,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1409,9 +1427,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1455,43 +1470,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1558,7 +1558,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LMG (normal)</c:v>
+                  <c:v>Assault Rifle (normal)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1736,97 +1736,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.889000000000003</c:v>
+                  <c:v>61.110999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.777999999999999</c:v>
+                  <c:v>62.222000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.667000000000002</c:v>
+                  <c:v>63.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.555999999999997</c:v>
+                  <c:v>64.444000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.444000000000003</c:v>
+                  <c:v>65.555999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.332999999999998</c:v>
+                  <c:v>66.667000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.222000000000001</c:v>
+                  <c:v>67.778000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.110999999999997</c:v>
+                  <c:v>68.888999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47</c:v>
+                  <c:v>69.614999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46</c:v>
+                  <c:v>69.230999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>68.846000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44</c:v>
+                  <c:v>68.462000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43</c:v>
+                  <c:v>68.076999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42</c:v>
+                  <c:v>67.691999999999993</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41</c:v>
+                  <c:v>67.308000000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40</c:v>
+                  <c:v>66.923000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39</c:v>
+                  <c:v>66.537999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>38</c:v>
+                  <c:v>66.153999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37</c:v>
+                  <c:v>65.769000000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36</c:v>
+                  <c:v>65.385000000000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>64.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>63.667000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>62.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>61.667000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -2247,8 +2247,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139650560"/>
-        <c:axId val="139267456"/>
+        <c:axId val="188212736"/>
+        <c:axId val="145493376"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2262,7 +2262,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assault Rifle (normal)</c:v>
+                  <c:v>LMG (normal)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2440,97 +2440,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.110999999999997</c:v>
+                  <c:v>40.889000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.222000000000001</c:v>
+                  <c:v>41.777999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.332999999999998</c:v>
+                  <c:v>42.667000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.444000000000003</c:v>
+                  <c:v>43.555999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.555999999999997</c:v>
+                  <c:v>44.444000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.667000000000002</c:v>
+                  <c:v>45.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.778000000000006</c:v>
+                  <c:v>46.222000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.888999999999996</c:v>
+                  <c:v>47.110999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69.614999999999995</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69.230999999999995</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>68.846000000000004</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68.462000000000003</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>68.076999999999998</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67.691999999999993</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67.308000000000007</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>66.923000000000002</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>66.537999999999997</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>66.153999999999996</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65.769000000000005</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>65.385000000000005</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>65</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>64.332999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>63.667000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>62.332999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>61.667000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -2789,11 +2789,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139651584"/>
-        <c:axId val="139268032"/>
+        <c:axId val="188213760"/>
+        <c:axId val="145493952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139650560"/>
+        <c:axId val="188212736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2827,7 +2827,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139267456"/>
+        <c:crossAx val="145493376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2837,7 +2837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139267456"/>
+        <c:axId val="145493376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2870,12 +2870,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139650560"/>
+        <c:crossAx val="188212736"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139268032"/>
+        <c:axId val="145493952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2887,12 +2887,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139651584"/>
+        <c:crossAx val="188213760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="139651584"/>
+        <c:axId val="188213760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2902,7 +2902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139268032"/>
+        <c:crossAx val="145493952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3004,7 +3004,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Assault Rifle (normal)</c:v>
+                  <c:v>LMG (normal)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3182,97 +3182,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>6.524</c:v>
+                  <c:v>6.3090000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.524</c:v>
+                  <c:v>6.3070000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.516</c:v>
+                  <c:v>6.3040000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5129999999999999</c:v>
+                  <c:v>6.2990000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.625</c:v>
+                  <c:v>6.4349999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7409999999999997</c:v>
+                  <c:v>6.5709999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8529999999999998</c:v>
+                  <c:v>6.7060000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9690000000000003</c:v>
+                  <c:v>6.8410000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0839999999999996</c:v>
+                  <c:v>6.976</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.194</c:v>
+                  <c:v>7.1079999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3079999999999998</c:v>
+                  <c:v>7.242</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4169999999999998</c:v>
+                  <c:v>7.3760000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.5309999999999997</c:v>
+                  <c:v>7.5090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.48</c:v>
+                  <c:v>7.3490000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.4349999999999996</c:v>
+                  <c:v>7.1890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3890000000000002</c:v>
+                  <c:v>7.0279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3390000000000004</c:v>
+                  <c:v>6.8689999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.2939999999999996</c:v>
+                  <c:v>6.7110000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.2439999999999998</c:v>
+                  <c:v>6.5529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1989999999999998</c:v>
+                  <c:v>6.3949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.15</c:v>
+                  <c:v>6.2370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.1050000000000004</c:v>
+                  <c:v>6.0780000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.06</c:v>
+                  <c:v>5.9210000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.0110000000000001</c:v>
+                  <c:v>5.7640000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.9669999999999996</c:v>
+                  <c:v>5.6079999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.9189999999999996</c:v>
+                  <c:v>5.4509999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.8449999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.7679999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.6950000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.6210000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.5449999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -3348,7 +3348,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LMG (normal)</c:v>
+                  <c:v>Assault Rifle (normal)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3526,97 +3526,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>6.3090000000000002</c:v>
+                  <c:v>6.524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3070000000000004</c:v>
+                  <c:v>6.524</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3040000000000003</c:v>
+                  <c:v>6.516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2990000000000004</c:v>
+                  <c:v>6.5129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4349999999999996</c:v>
+                  <c:v>6.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5709999999999997</c:v>
+                  <c:v>6.7409999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7060000000000004</c:v>
+                  <c:v>6.8529999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8410000000000002</c:v>
+                  <c:v>6.9690000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.976</c:v>
+                  <c:v>7.0839999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1079999999999997</c:v>
+                  <c:v>7.194</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.242</c:v>
+                  <c:v>7.3079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3760000000000003</c:v>
+                  <c:v>7.4169999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.5090000000000003</c:v>
+                  <c:v>7.5309999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3490000000000002</c:v>
+                  <c:v>7.48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.1890000000000001</c:v>
+                  <c:v>7.4349999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.0279999999999996</c:v>
+                  <c:v>7.3890000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.8689999999999998</c:v>
+                  <c:v>7.3390000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.7110000000000003</c:v>
+                  <c:v>7.2939999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.5529999999999999</c:v>
+                  <c:v>7.2439999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3949999999999996</c:v>
+                  <c:v>7.1989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.2370000000000001</c:v>
+                  <c:v>7.15</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0780000000000003</c:v>
+                  <c:v>7.1050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.9210000000000003</c:v>
+                  <c:v>7.06</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.7640000000000002</c:v>
+                  <c:v>7.0110000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.6079999999999997</c:v>
+                  <c:v>6.9669999999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.4509999999999996</c:v>
+                  <c:v>6.9189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>6.8449999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>6.7679999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>6.6950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>6.6210000000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>6.5449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -4057,11 +4057,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140457472"/>
-        <c:axId val="139270336"/>
+        <c:axId val="189052416"/>
+        <c:axId val="145496256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140457472"/>
+        <c:axId val="189052416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4095,7 +4095,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139270336"/>
+        <c:crossAx val="145496256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4105,7 +4105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139270336"/>
+        <c:axId val="145496256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4137,7 +4137,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140457472"/>
+        <c:crossAx val="189052416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4547,7 +4547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R15" sqref="R15:S15"/>
     </sheetView>
   </sheetViews>
@@ -4570,46 +4570,46 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="G2" s="31" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="G2" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="2"/>
       <c r="Z2" s="14"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-      <c r="G3" s="30" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="G3" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
       <c r="J3" s="2"/>
-      <c r="N3" s="77" t="s">
+      <c r="N3" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="79"/>
-      <c r="U3" s="31" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40"/>
+      <c r="U3" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31" t="s">
+      <c r="V3" s="51"/>
+      <c r="W3" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="31"/>
+      <c r="X3" s="51"/>
       <c r="Z3" s="14"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4623,237 +4623,237 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="2"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="82"/>
-      <c r="U4" s="57">
+      <c r="N4" s="41"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
+      <c r="U4" s="50">
         <f>IF($P$7="Weapon 1",calculations!F21,IF($P$7="Weapon 2",calculations2!F21,IF($P$7="Weapon 3",calculations3!F21,calculations4!F21)))</f>
         <v>11</v>
       </c>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57">
+      <c r="V4" s="50"/>
+      <c r="W4" s="50">
         <f>IF($P$7="Weapon 1",calculations!D17,IF($P$7="Weapon 2",calculations2!D17,IF($P$7="Weapon 3",calculations3!D17,calculations4!D17)))</f>
-        <v>30.9</v>
-      </c>
-      <c r="X4" s="57"/>
+        <v>25.9</v>
+      </c>
+      <c r="X4" s="50"/>
       <c r="Z4" s="14"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="37" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="38"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="2"/>
-      <c r="U5" s="31" t="s">
+      <c r="U5" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31" t="s">
+      <c r="V5" s="51"/>
+      <c r="W5" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="X5" s="31"/>
+      <c r="X5" s="51"/>
       <c r="Z5" s="14"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="45" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="I6" s="46"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="2"/>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="39" t="s">
+      <c r="M6" s="51"/>
+      <c r="N6" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="39" t="s">
+      <c r="O6" s="47"/>
+      <c r="P6" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="39" t="s">
+      <c r="Q6" s="47"/>
+      <c r="R6" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="40"/>
-      <c r="U6" s="57">
+      <c r="S6" s="47"/>
+      <c r="U6" s="50">
         <f ca="1">ROUND(IF($P$7="Weapon 1",calculations!G17,IF($P$7="Weapon 2",calculations2!G17,IF($P$7="Weapon 3",calculations3!G17,calculations4!G17))),2)</f>
-        <v>1</v>
-      </c>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57">
+        <v>1.8</v>
+      </c>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50">
         <f ca="1">ROUND(IF($P$7="Weapon 1",calculations!E17,IF($P$7="Weapon 2",calculations2!E17,IF($P$7="Weapon 3",calculations3!E17,calculations4!E17))),2)</f>
-        <v>1.7</v>
-      </c>
-      <c r="X6" s="57"/>
+        <v>1.8</v>
+      </c>
+      <c r="X6" s="50"/>
       <c r="Z6" s="14"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="83">
+      <c r="B7" s="34">
         <v>8</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="83">
+      <c r="C7" s="35"/>
+      <c r="D7" s="34">
         <v>14</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="83">
+      <c r="E7" s="35"/>
+      <c r="F7" s="34">
         <v>26</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="83">
+      <c r="G7" s="35"/>
+      <c r="H7" s="34">
         <v>6</v>
       </c>
-      <c r="I7" s="84"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="2"/>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="41" t="s">
+      <c r="M7" s="84"/>
+      <c r="N7" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="41" t="s">
+      <c r="O7" s="49"/>
+      <c r="P7" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="41" t="s">
+      <c r="Q7" s="49"/>
+      <c r="R7" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="S7" s="42"/>
-      <c r="U7" s="31" t="s">
+      <c r="S7" s="49"/>
+      <c r="U7" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31" t="s">
+      <c r="V7" s="51"/>
+      <c r="W7" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="X7" s="31"/>
+      <c r="X7" s="51"/>
       <c r="Z7" s="14"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="46"/>
+      <c r="B8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="33"/>
       <c r="J8" s="2"/>
-      <c r="U8" s="57">
+      <c r="U8" s="50">
         <f>IF($P$7="Weapon 1",calculations!D21,IF($P$7="Weapon 2",calculations2!D21,IF($P$7="Weapon 3",calculations3!D21,calculations4!D21)))</f>
-        <v>3</v>
-      </c>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57">
+        <v>6</v>
+      </c>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50">
         <f>IF($P$7="Weapon 1",calculations!E21,IF($P$7="Weapon 2",calculations2!E21,IF($P$7="Weapon 3",calculations3!E21,calculations4!E21)))</f>
-        <v>10</v>
-      </c>
-      <c r="X8" s="57"/>
+        <v>7</v>
+      </c>
+      <c r="X8" s="50"/>
       <c r="Z8" s="14"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="83" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="83" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="83" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="84"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="2"/>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="37" t="s">
+      <c r="M9" s="45"/>
+      <c r="N9" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="37" t="s">
+      <c r="O9" s="45"/>
+      <c r="P9" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="37" t="s">
+      <c r="Q9" s="45"/>
+      <c r="R9" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="S9" s="38"/>
-      <c r="U9" s="31" t="s">
+      <c r="S9" s="45"/>
+      <c r="U9" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31" t="s">
+      <c r="V9" s="51"/>
+      <c r="W9" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="X9" s="31"/>
+      <c r="X9" s="51"/>
       <c r="Z9" s="14"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="45" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="45" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="45" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="46"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="2"/>
       <c r="L10" s="28" t="s">
         <v>142</v>
@@ -4871,73 +4871,73 @@
         <v>142</v>
       </c>
       <c r="S10" s="29"/>
-      <c r="U10" s="57">
+      <c r="U10" s="50">
         <f>IF($P$7="Weapon 1",calculations!G21,IF($P$7="Weapon 2",calculations2!G21,IF($P$7="Weapon 3",calculations3!G21,calculations4!G21)))</f>
-        <v>70</v>
-      </c>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57">
+        <v>46</v>
+      </c>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50">
         <f ca="1">ROUND(IF($P$7="Weapon 1",calculations!G27,IF($P$7="Weapon 2",calculations2!G27,IF($P$7="Weapon 3",calculations3!G27,calculations4!G27))),3)</f>
-        <v>10.879</v>
-      </c>
-      <c r="X10" s="57"/>
+        <v>15.776999999999999</v>
+      </c>
+      <c r="X10" s="50"/>
       <c r="Z10" s="14"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="83" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="83" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="83" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="84"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="2"/>
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="35" t="s">
+      <c r="M11" s="37"/>
+      <c r="N11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="36"/>
-      <c r="P11" s="35" t="s">
+      <c r="O11" s="37"/>
+      <c r="P11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="35" t="s">
+      <c r="Q11" s="37"/>
+      <c r="R11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="S11" s="36"/>
+      <c r="S11" s="37"/>
       <c r="Z11" s="14"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="45" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="45" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="45" t="s">
+      <c r="G12" s="33"/>
+      <c r="H12" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="46"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="2"/>
       <c r="L12" s="28" t="s">
         <v>126</v>
@@ -4955,81 +4955,81 @@
         <v>126</v>
       </c>
       <c r="S12" s="29"/>
-      <c r="U12" s="31" t="s">
+      <c r="U12" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31" t="s">
+      <c r="V12" s="51"/>
+      <c r="W12" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="X12" s="31"/>
+      <c r="X12" s="51"/>
       <c r="Z12" s="14"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="35">
+      <c r="B13" s="36">
         <v>1</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="35">
+      <c r="C13" s="37"/>
+      <c r="D13" s="36">
         <v>1</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="35">
+      <c r="E13" s="37"/>
+      <c r="F13" s="36">
         <v>1</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="35">
+      <c r="G13" s="37"/>
+      <c r="H13" s="36">
         <v>1</v>
       </c>
-      <c r="I13" s="36"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="2"/>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="26" t="s">
+      <c r="M13" s="78"/>
+      <c r="N13" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="26" t="s">
+      <c r="O13" s="78"/>
+      <c r="P13" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="26" t="s">
+      <c r="Q13" s="78"/>
+      <c r="R13" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="S13" s="27"/>
-      <c r="U13" s="76" t="str">
+      <c r="S13" s="78"/>
+      <c r="U13" s="52" t="str">
         <f>CONCATENATE(ROUND(IF($P$7="Weapon 1",calculations!G25,IF($P$7="Weapon 2",calculations2!G25,IF($P$7="Weapon 3",calculations3!G25,calculations4!G25)))*100,2),"%")</f>
-        <v>60%</v>
-      </c>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76" t="str">
+        <v>40%</v>
+      </c>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52" t="str">
         <f>CONCATENATE(ROUND(IF($P$7="Weapon 1",calculations!D27,IF($P$7="Weapon 2",calculations2!D27,IF($P$7="Weapon 3",calculations3!D27,calculations4!D27)))*100,2),"%")</f>
-        <v>70%</v>
-      </c>
-      <c r="X13" s="76"/>
+        <v>48%</v>
+      </c>
+      <c r="X13" s="52"/>
       <c r="Z13" s="14"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="45" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="45" t="s">
+      <c r="E14" s="33"/>
+      <c r="F14" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="45" t="s">
+      <c r="G14" s="33"/>
+      <c r="H14" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="I14" s="46"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="2"/>
       <c r="L14" s="28" t="s">
         <v>65</v>
@@ -5047,153 +5047,153 @@
         <v>65</v>
       </c>
       <c r="S14" s="29"/>
-      <c r="U14" s="31" t="s">
+      <c r="U14" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31" t="s">
+      <c r="V14" s="51"/>
+      <c r="W14" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="X14" s="31"/>
+      <c r="X14" s="51"/>
       <c r="Z14" s="14"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="35">
+      <c r="B15" s="36">
         <v>1</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="35">
+      <c r="C15" s="37"/>
+      <c r="D15" s="36">
         <v>1</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="35">
+      <c r="E15" s="37"/>
+      <c r="F15" s="36">
         <v>1</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="35">
+      <c r="G15" s="37"/>
+      <c r="H15" s="36">
         <v>1</v>
       </c>
-      <c r="I15" s="36"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="2"/>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="82"/>
+      <c r="N15" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="33" t="s">
+      <c r="O15" s="82"/>
+      <c r="P15" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="33" t="s">
+      <c r="Q15" s="82"/>
+      <c r="R15" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="S15" s="34"/>
-      <c r="U15" s="76" t="str">
+      <c r="S15" s="82"/>
+      <c r="U15" s="52" t="str">
         <f>CONCATENATE(ROUND(IF($P$7="Weapon 1",calculations!E27,IF($P$7="Weapon 2",calculations2!E27,IF($P$7="Weapon 3",calculations3!E27,calculations4!E27)))*100,2),"%")</f>
-        <v>65%</v>
-      </c>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76" t="str">
+        <v>35%</v>
+      </c>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52" t="str">
         <f>CONCATENATE(ROUND(IF($P$7="Weapon 1",calculations!F27,IF($P$7="Weapon 2",calculations2!F27,IF($P$7="Weapon 3",calculations3!F27,calculations4!F27)))*100,2),"%")</f>
-        <v>55%</v>
-      </c>
-      <c r="X15" s="76"/>
+        <v>26%</v>
+      </c>
+      <c r="X15" s="52"/>
       <c r="Z15" s="14"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="45" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="45" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="45" t="s">
+      <c r="G16" s="33"/>
+      <c r="H16" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="I16" s="46"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="2"/>
-      <c r="L16" s="45" t="s">
+      <c r="L16" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="M16" s="46"/>
-      <c r="N16" s="45" t="s">
+      <c r="M16" s="33"/>
+      <c r="N16" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="45" t="s">
+      <c r="O16" s="33"/>
+      <c r="P16" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="45" t="s">
+      <c r="Q16" s="33"/>
+      <c r="R16" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="S16" s="46"/>
-      <c r="U16" s="31" t="s">
+      <c r="S16" s="33"/>
+      <c r="U16" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31" t="s">
+      <c r="V16" s="51"/>
+      <c r="W16" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="X16" s="31"/>
+      <c r="X16" s="51"/>
       <c r="Z16" s="14"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35">
+      <c r="B17" s="36">
         <v>1</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="35">
+      <c r="C17" s="37"/>
+      <c r="D17" s="36">
         <v>1</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="35">
+      <c r="E17" s="37"/>
+      <c r="F17" s="36">
         <v>1</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="35">
+      <c r="G17" s="37"/>
+      <c r="H17" s="36">
         <v>1</v>
       </c>
-      <c r="I17" s="36"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="2"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="26" t="s">
+      <c r="M17" s="78"/>
+      <c r="N17" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="26" t="s">
+      <c r="O17" s="78"/>
+      <c r="P17" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="26" t="s">
+      <c r="Q17" s="78"/>
+      <c r="R17" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="S17" s="27"/>
-      <c r="U17" s="57">
+      <c r="S17" s="78"/>
+      <c r="U17" s="50">
         <f>IF($P$7="Weapon 1",calculations!G23,IF($P$7="Weapon 2",calculations2!G23,IF($P$7="Weapon 3",calculations3!G23,calculations4!G23)))</f>
         <v>1</v>
       </c>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57" t="str">
+      <c r="V17" s="50"/>
+      <c r="W17" s="50" t="str">
         <f>IF($P$7="Weapon 1",calculations!E25,IF($P$7="Weapon 2",calculations2!E25,IF($P$7="Weapon 3",calculations3!E25,calculations4!E25)))</f>
         <v>-</v>
       </c>
-      <c r="X17" s="57"/>
+      <c r="X17" s="50"/>
       <c r="Z17" s="16"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5215,81 +5215,81 @@
       <c r="I18" s="29"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="45" t="s">
+      <c r="L18" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="M18" s="46"/>
-      <c r="N18" s="45" t="s">
+      <c r="M18" s="33"/>
+      <c r="N18" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="O18" s="46"/>
-      <c r="P18" s="45" t="s">
+      <c r="O18" s="33"/>
+      <c r="P18" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="45" t="s">
+      <c r="Q18" s="33"/>
+      <c r="R18" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="S18" s="46"/>
-      <c r="U18" s="31" t="s">
+      <c r="S18" s="33"/>
+      <c r="U18" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31" t="s">
+      <c r="V18" s="51"/>
+      <c r="W18" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="X18" s="31"/>
+      <c r="X18" s="51"/>
       <c r="Z18" s="16"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="72" t="str">
+      <c r="B19" s="26" t="str">
         <f>CONCATENATE(ROUND(shootercalcs!$B$14*100,2),"%")</f>
         <v>100%</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="72" t="str">
+      <c r="C19" s="27"/>
+      <c r="D19" s="26" t="str">
         <f>CONCATENATE(ROUND(shootercalcs!$B$29*100,2),"%")</f>
         <v>100%</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="72" t="str">
+      <c r="E19" s="27"/>
+      <c r="F19" s="26" t="str">
         <f>CONCATENATE(ROUND(shootercalcs!$B$44*100,2),"%")</f>
         <v>100%</v>
       </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="72" t="str">
+      <c r="G19" s="27"/>
+      <c r="H19" s="26" t="str">
         <f>CONCATENATE(ROUND(shootercalcs!$B$59*100,2),"%")</f>
         <v>100%</v>
       </c>
-      <c r="I19" s="73"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="43">
+      <c r="L19" s="79">
         <v>1</v>
       </c>
-      <c r="M19" s="44"/>
-      <c r="N19" s="43">
+      <c r="M19" s="80"/>
+      <c r="N19" s="79">
         <v>1</v>
       </c>
-      <c r="O19" s="44"/>
-      <c r="P19" s="43">
+      <c r="O19" s="80"/>
+      <c r="P19" s="79">
         <v>1</v>
       </c>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="43">
+      <c r="Q19" s="80"/>
+      <c r="R19" s="79">
         <v>1</v>
       </c>
-      <c r="S19" s="44"/>
-      <c r="U19" s="57" t="str">
+      <c r="S19" s="80"/>
+      <c r="U19" s="50" t="str">
         <f ca="1">CONCATENATE(ROUND(AVERAGE(IF($P$7="Weapon 1",calculations!$P$2:$P$52,IF($P$7="Weapon 2",calculations2!$P$2:$P$52,IF($P$7="Weapon 3",calculations3!$P$2:$P$52,calculations4!$P$2:$P$52)))),2),"%")</f>
-        <v>65.16%</v>
-      </c>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57">
+        <v>42.04%</v>
+      </c>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50">
         <f ca="1">ROUND(AVERAGE(IF($P$7="Weapon 1",calculations!$R$2:$R$52,IF($P$7="Weapon 2",calculations2!$R$2:$R$52,IF($P$7="Weapon 3",calculations3!$R$2:$R$52,calculations4!$R$2:$R$52)))),3)</f>
-        <v>6.9960000000000004</v>
-      </c>
-      <c r="X19" s="57"/>
+        <v>6.5819999999999999</v>
+      </c>
+      <c r="X19" s="50"/>
       <c r="Z19" s="16"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5316,26 +5316,26 @@
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="74" t="str">
+      <c r="B21" s="30" t="str">
         <f>CONCATENATE(ROUND(shootercalcs!$C$14*100,2),"%")</f>
         <v>100%</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="74" t="str">
+      <c r="C21" s="31"/>
+      <c r="D21" s="30" t="str">
         <f>CONCATENATE(ROUND(shootercalcs!$C$29*100,2),"%")</f>
         <v>100%</v>
       </c>
-      <c r="E21" s="75"/>
-      <c r="F21" s="74" t="str">
+      <c r="E21" s="31"/>
+      <c r="F21" s="30" t="str">
         <f>CONCATENATE(ROUND(shootercalcs!$C$44*100,2),"%")</f>
         <v>100%</v>
       </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="74" t="str">
+      <c r="G21" s="31"/>
+      <c r="H21" s="30" t="str">
         <f>CONCATENATE(ROUND(shootercalcs!$C$59*100,2),"%")</f>
         <v>100%</v>
       </c>
-      <c r="I21" s="75"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
       <c r="Y21" s="1"/>
@@ -5361,25 +5361,25 @@
       <c r="Z22" s="16"/>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="22"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="47" t="s">
+      <c r="J23" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="49"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
@@ -5393,21 +5393,21 @@
       <c r="Z23" s="14"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="22"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="58"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
@@ -5421,21 +5421,21 @@
       <c r="Z24" s="14"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="52"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="58"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
@@ -5449,21 +5449,21 @@
       <c r="Z25" s="14"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="52"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="58"/>
       <c r="P26" s="14"/>
       <c r="U26" s="17"/>
       <c r="V26" s="17"/>
@@ -5471,21 +5471,21 @@
       <c r="X26" s="17"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="55"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="61"/>
       <c r="P27" s="14"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5507,15 +5507,15 @@
       <c r="P28" s="14"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="69"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -5527,13 +5527,13 @@
       <c r="P29" s="14"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="71"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="76"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -5545,114 +5545,114 @@
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="71"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="76"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="71"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="76"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="71"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="76"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="71"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="76"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="65"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="68"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="63"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="66"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="71"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
@@ -5691,25 +5691,124 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="J23:O27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A23:G27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G40"/>
+    <mergeCell ref="A29:G34"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="N3:Q4"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
@@ -5734,124 +5833,25 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="N3:Q4"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="J23:O27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A23:G27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G40"/>
-    <mergeCell ref="A29:G34"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:Q7">
@@ -28064,11 +28064,11 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>IF(Main!R7&lt;&gt;"All","Shooter's Accuracy",CONCATENATE(Main!L15," (",LOWER(Main!L17),IF(Main!L19&lt;&gt;1,CONCATENATE(" ",Main!L19*100,"%)"),")")))</f>
-        <v>Assault Rifle (normal)</v>
+        <v>LMG (normal)</v>
       </c>
       <c r="B1" t="str">
         <f>IF(Main!R7&lt;&gt;"All",CONCATENATE(K1,L1,M1,N1),CONCATENATE(Main!N15," (",LOWER(Main!N17),IF(Main!N19&lt;&gt;1,CONCATENATE(" ",Main!N19*100,"%)"),")")))</f>
-        <v>LMG (normal)</v>
+        <v>Assault Rifle (normal)</v>
       </c>
       <c r="C1" t="str">
         <f>IF(Main!R7&lt;&gt;"All","Actual Accuracy",CONCATENATE(Main!P15," (",LOWER(Main!P17),IF(Main!P19&lt;&gt;1,CONCATENATE(" ",Main!P19*100,"%)"),")")))</f>
@@ -28083,11 +28083,11 @@
       </c>
       <c r="F1" t="str">
         <f>IF(Main!R7&lt;&gt;"All","Base DPS",CONCATENATE(Main!L15," (",LOWER(Main!L17),IF(Main!L19&lt;&gt;1,CONCATENATE(" ",Main!L19*100,"%)"),")")))</f>
-        <v>Assault Rifle (normal)</v>
+        <v>LMG (normal)</v>
       </c>
       <c r="G1" t="str">
         <f>IF(Main!R7&lt;&gt;"All","Actual DPS",CONCATENATE(Main!N15," (",LOWER(Main!N17),IF(Main!N19&lt;&gt;1,CONCATENATE(" ",Main!N19*100,"%)"),")")))</f>
-        <v>LMG (normal)</v>
+        <v>Assault Rifle (normal)</v>
       </c>
       <c r="H1" t="str">
         <f>IF(Main!R7&lt;&gt;"All","",CONCATENATE(Main!P15," (",LOWER(Main!P17),IF(Main!P19&lt;&gt;1,CONCATENATE(" ",Main!P19*100,"%)"),")")))</f>
@@ -28117,11 +28117,11 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N2,IF(Main!$R$7="Weapon 2",calculations2!N2,IF(Main!$R$7="Weapon 3",calculations3!N2,IF(Main!$R$7="Weapon 4",calculations4!N2,calculations!$P2))))</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O2,IF(Main!$R$7="Weapon 2",calculations2!O2,IF(Main!$R$7="Weapon 3",calculations3!O2,IF(Main!$R$7="Weapon 4",calculations4!O2,calculations2!$P2))))</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P2,IF(Main!$R$7="Weapon 2",calculations2!P2,IF(Main!$R$7="Weapon 3",calculations3!P2,IF(Main!$R$7="Weapon 4",calculations4!P2,calculations3!$P2))))</f>
@@ -28136,11 +28136,11 @@
       </c>
       <c r="F2">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q2,IF(Main!$R$7="Weapon 2",calculations2!Q2,IF(Main!$R$7="Weapon 3",calculations3!Q2,IF(Main!$R$7="Weapon 4",calculations4!Q2,calculations!$R2))))</f>
-        <v>6.524</v>
+        <v>6.3090000000000002</v>
       </c>
       <c r="G2">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R2,IF(Main!$R$7="Weapon 2",calculations2!R2,IF(Main!$R$7="Weapon 3",calculations3!R2,IF(Main!$R$7="Weapon 4",calculations4!R2,calculations2!$R2))))</f>
-        <v>6.3090000000000002</v>
+        <v>6.524</v>
       </c>
       <c r="H2">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R2,"")</f>
@@ -28154,11 +28154,11 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N3,IF(Main!$R$7="Weapon 2",calculations2!N3,IF(Main!$R$7="Weapon 3",calculations3!N3,IF(Main!$R$7="Weapon 4",calculations4!N3,calculations!$P3))))</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O3,IF(Main!$R$7="Weapon 2",calculations2!O3,IF(Main!$R$7="Weapon 3",calculations3!O3,IF(Main!$R$7="Weapon 4",calculations4!O3,calculations2!$P3))))</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P3,IF(Main!$R$7="Weapon 2",calculations2!P3,IF(Main!$R$7="Weapon 3",calculations3!P3,IF(Main!$R$7="Weapon 4",calculations4!P3,calculations3!$P3))))</f>
@@ -28174,11 +28174,11 @@
       </c>
       <c r="F3">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q3,IF(Main!$R$7="Weapon 2",calculations2!Q3,IF(Main!$R$7="Weapon 3",calculations3!Q3,IF(Main!$R$7="Weapon 4",calculations4!Q3,calculations!$R3))))</f>
-        <v>6.524</v>
+        <v>6.3070000000000004</v>
       </c>
       <c r="G3">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R3,IF(Main!$R$7="Weapon 2",calculations2!R3,IF(Main!$R$7="Weapon 3",calculations3!R3,IF(Main!$R$7="Weapon 4",calculations4!R3,calculations2!$R3))))</f>
-        <v>6.3070000000000004</v>
+        <v>6.524</v>
       </c>
       <c r="H3">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R3,"")</f>
@@ -28192,11 +28192,11 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N4,IF(Main!$R$7="Weapon 2",calculations2!N4,IF(Main!$R$7="Weapon 3",calculations3!N4,IF(Main!$R$7="Weapon 4",calculations4!N4,calculations!$P4))))</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O4,IF(Main!$R$7="Weapon 2",calculations2!O4,IF(Main!$R$7="Weapon 3",calculations3!O4,IF(Main!$R$7="Weapon 4",calculations4!O4,calculations2!$P4))))</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P4,IF(Main!$R$7="Weapon 2",calculations2!P4,IF(Main!$R$7="Weapon 3",calculations3!P4,IF(Main!$R$7="Weapon 4",calculations4!P4,calculations3!$P4))))</f>
@@ -28212,11 +28212,11 @@
       </c>
       <c r="F4">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q4,IF(Main!$R$7="Weapon 2",calculations2!Q4,IF(Main!$R$7="Weapon 3",calculations3!Q4,IF(Main!$R$7="Weapon 4",calculations4!Q4,calculations!$R4))))</f>
-        <v>6.516</v>
+        <v>6.3040000000000003</v>
       </c>
       <c r="G4">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R4,IF(Main!$R$7="Weapon 2",calculations2!R4,IF(Main!$R$7="Weapon 3",calculations3!R4,IF(Main!$R$7="Weapon 4",calculations4!R4,calculations2!$R4))))</f>
-        <v>6.3040000000000003</v>
+        <v>6.516</v>
       </c>
       <c r="H4">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R4,"")</f>
@@ -28230,11 +28230,11 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N5,IF(Main!$R$7="Weapon 2",calculations2!N5,IF(Main!$R$7="Weapon 3",calculations3!N5,IF(Main!$R$7="Weapon 4",calculations4!N5,calculations!$P5))))</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O5,IF(Main!$R$7="Weapon 2",calculations2!O5,IF(Main!$R$7="Weapon 3",calculations3!O5,IF(Main!$R$7="Weapon 4",calculations4!O5,calculations2!$P5))))</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P5,IF(Main!$R$7="Weapon 2",calculations2!P5,IF(Main!$R$7="Weapon 3",calculations3!P5,IF(Main!$R$7="Weapon 4",calculations4!P5,calculations3!$P5))))</f>
@@ -28250,11 +28250,11 @@
       </c>
       <c r="F5">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q5,IF(Main!$R$7="Weapon 2",calculations2!Q5,IF(Main!$R$7="Weapon 3",calculations3!Q5,IF(Main!$R$7="Weapon 4",calculations4!Q5,calculations!$R5))))</f>
-        <v>6.5129999999999999</v>
+        <v>6.2990000000000004</v>
       </c>
       <c r="G5">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R5,IF(Main!$R$7="Weapon 2",calculations2!R5,IF(Main!$R$7="Weapon 3",calculations3!R5,IF(Main!$R$7="Weapon 4",calculations4!R5,calculations2!$R5))))</f>
-        <v>6.2990000000000004</v>
+        <v>6.5129999999999999</v>
       </c>
       <c r="H5">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R5,"")</f>
@@ -28268,11 +28268,11 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N6,IF(Main!$R$7="Weapon 2",calculations2!N6,IF(Main!$R$7="Weapon 3",calculations3!N6,IF(Main!$R$7="Weapon 4",calculations4!N6,calculations!$P6))))</f>
-        <v>61.110999999999997</v>
+        <v>40.889000000000003</v>
       </c>
       <c r="B6">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O6,IF(Main!$R$7="Weapon 2",calculations2!O6,IF(Main!$R$7="Weapon 3",calculations3!O6,IF(Main!$R$7="Weapon 4",calculations4!O6,calculations2!$P6))))</f>
-        <v>40.889000000000003</v>
+        <v>61.110999999999997</v>
       </c>
       <c r="C6">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P6,IF(Main!$R$7="Weapon 2",calculations2!P6,IF(Main!$R$7="Weapon 3",calculations3!P6,IF(Main!$R$7="Weapon 4",calculations4!P6,calculations3!$P6))))</f>
@@ -28288,11 +28288,11 @@
       </c>
       <c r="F6">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q6,IF(Main!$R$7="Weapon 2",calculations2!Q6,IF(Main!$R$7="Weapon 3",calculations3!Q6,IF(Main!$R$7="Weapon 4",calculations4!Q6,calculations!$R6))))</f>
-        <v>6.625</v>
+        <v>6.4349999999999996</v>
       </c>
       <c r="G6">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R6,IF(Main!$R$7="Weapon 2",calculations2!R6,IF(Main!$R$7="Weapon 3",calculations3!R6,IF(Main!$R$7="Weapon 4",calculations4!R6,calculations2!$R6))))</f>
-        <v>6.4349999999999996</v>
+        <v>6.625</v>
       </c>
       <c r="H6">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R6,"")</f>
@@ -28306,11 +28306,11 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N7,IF(Main!$R$7="Weapon 2",calculations2!N7,IF(Main!$R$7="Weapon 3",calculations3!N7,IF(Main!$R$7="Weapon 4",calculations4!N7,calculations!$P7))))</f>
-        <v>62.222000000000001</v>
+        <v>41.777999999999999</v>
       </c>
       <c r="B7">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O7,IF(Main!$R$7="Weapon 2",calculations2!O7,IF(Main!$R$7="Weapon 3",calculations3!O7,IF(Main!$R$7="Weapon 4",calculations4!O7,calculations2!$P7))))</f>
-        <v>41.777999999999999</v>
+        <v>62.222000000000001</v>
       </c>
       <c r="C7">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P7,IF(Main!$R$7="Weapon 2",calculations2!P7,IF(Main!$R$7="Weapon 3",calculations3!P7,IF(Main!$R$7="Weapon 4",calculations4!P7,calculations3!$P7))))</f>
@@ -28326,11 +28326,11 @@
       </c>
       <c r="F7">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q7,IF(Main!$R$7="Weapon 2",calculations2!Q7,IF(Main!$R$7="Weapon 3",calculations3!Q7,IF(Main!$R$7="Weapon 4",calculations4!Q7,calculations!$R7))))</f>
-        <v>6.7409999999999997</v>
+        <v>6.5709999999999997</v>
       </c>
       <c r="G7">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R7,IF(Main!$R$7="Weapon 2",calculations2!R7,IF(Main!$R$7="Weapon 3",calculations3!R7,IF(Main!$R$7="Weapon 4",calculations4!R7,calculations2!$R7))))</f>
-        <v>6.5709999999999997</v>
+        <v>6.7409999999999997</v>
       </c>
       <c r="H7">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R7,"")</f>
@@ -28344,11 +28344,11 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N8,IF(Main!$R$7="Weapon 2",calculations2!N8,IF(Main!$R$7="Weapon 3",calculations3!N8,IF(Main!$R$7="Weapon 4",calculations4!N8,calculations!$P8))))</f>
-        <v>63.332999999999998</v>
+        <v>42.667000000000002</v>
       </c>
       <c r="B8">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O8,IF(Main!$R$7="Weapon 2",calculations2!O8,IF(Main!$R$7="Weapon 3",calculations3!O8,IF(Main!$R$7="Weapon 4",calculations4!O8,calculations2!$P8))))</f>
-        <v>42.667000000000002</v>
+        <v>63.332999999999998</v>
       </c>
       <c r="C8">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P8,IF(Main!$R$7="Weapon 2",calculations2!P8,IF(Main!$R$7="Weapon 3",calculations3!P8,IF(Main!$R$7="Weapon 4",calculations4!P8,calculations3!$P8))))</f>
@@ -28364,11 +28364,11 @@
       </c>
       <c r="F8">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q8,IF(Main!$R$7="Weapon 2",calculations2!Q8,IF(Main!$R$7="Weapon 3",calculations3!Q8,IF(Main!$R$7="Weapon 4",calculations4!Q8,calculations!$R8))))</f>
-        <v>6.8529999999999998</v>
+        <v>6.7060000000000004</v>
       </c>
       <c r="G8">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R8,IF(Main!$R$7="Weapon 2",calculations2!R8,IF(Main!$R$7="Weapon 3",calculations3!R8,IF(Main!$R$7="Weapon 4",calculations4!R8,calculations2!$R8))))</f>
-        <v>6.7060000000000004</v>
+        <v>6.8529999999999998</v>
       </c>
       <c r="H8">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R8,"")</f>
@@ -28382,11 +28382,11 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N9,IF(Main!$R$7="Weapon 2",calculations2!N9,IF(Main!$R$7="Weapon 3",calculations3!N9,IF(Main!$R$7="Weapon 4",calculations4!N9,calculations!$P9))))</f>
-        <v>64.444000000000003</v>
+        <v>43.555999999999997</v>
       </c>
       <c r="B9">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O9,IF(Main!$R$7="Weapon 2",calculations2!O9,IF(Main!$R$7="Weapon 3",calculations3!O9,IF(Main!$R$7="Weapon 4",calculations4!O9,calculations2!$P9))))</f>
-        <v>43.555999999999997</v>
+        <v>64.444000000000003</v>
       </c>
       <c r="C9">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P9,IF(Main!$R$7="Weapon 2",calculations2!P9,IF(Main!$R$7="Weapon 3",calculations3!P9,IF(Main!$R$7="Weapon 4",calculations4!P9,calculations3!$P9))))</f>
@@ -28402,11 +28402,11 @@
       </c>
       <c r="F9">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q9,IF(Main!$R$7="Weapon 2",calculations2!Q9,IF(Main!$R$7="Weapon 3",calculations3!Q9,IF(Main!$R$7="Weapon 4",calculations4!Q9,calculations!$R9))))</f>
-        <v>6.9690000000000003</v>
+        <v>6.8410000000000002</v>
       </c>
       <c r="G9">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R9,IF(Main!$R$7="Weapon 2",calculations2!R9,IF(Main!$R$7="Weapon 3",calculations3!R9,IF(Main!$R$7="Weapon 4",calculations4!R9,calculations2!$R9))))</f>
-        <v>6.8410000000000002</v>
+        <v>6.9690000000000003</v>
       </c>
       <c r="H9">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R9,"")</f>
@@ -28420,11 +28420,11 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N10,IF(Main!$R$7="Weapon 2",calculations2!N10,IF(Main!$R$7="Weapon 3",calculations3!N10,IF(Main!$R$7="Weapon 4",calculations4!N10,calculations!$P10))))</f>
-        <v>65.555999999999997</v>
+        <v>44.444000000000003</v>
       </c>
       <c r="B10">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O10,IF(Main!$R$7="Weapon 2",calculations2!O10,IF(Main!$R$7="Weapon 3",calculations3!O10,IF(Main!$R$7="Weapon 4",calculations4!O10,calculations2!$P10))))</f>
-        <v>44.444000000000003</v>
+        <v>65.555999999999997</v>
       </c>
       <c r="C10">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P10,IF(Main!$R$7="Weapon 2",calculations2!P10,IF(Main!$R$7="Weapon 3",calculations3!P10,IF(Main!$R$7="Weapon 4",calculations4!P10,calculations3!$P10))))</f>
@@ -28440,11 +28440,11 @@
       </c>
       <c r="F10">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q10,IF(Main!$R$7="Weapon 2",calculations2!Q10,IF(Main!$R$7="Weapon 3",calculations3!Q10,IF(Main!$R$7="Weapon 4",calculations4!Q10,calculations!$R10))))</f>
-        <v>7.0839999999999996</v>
+        <v>6.976</v>
       </c>
       <c r="G10">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R10,IF(Main!$R$7="Weapon 2",calculations2!R10,IF(Main!$R$7="Weapon 3",calculations3!R10,IF(Main!$R$7="Weapon 4",calculations4!R10,calculations2!$R10))))</f>
-        <v>6.976</v>
+        <v>7.0839999999999996</v>
       </c>
       <c r="H10">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R10,"")</f>
@@ -28458,11 +28458,11 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N11,IF(Main!$R$7="Weapon 2",calculations2!N11,IF(Main!$R$7="Weapon 3",calculations3!N11,IF(Main!$R$7="Weapon 4",calculations4!N11,calculations!$P11))))</f>
-        <v>66.667000000000002</v>
+        <v>45.332999999999998</v>
       </c>
       <c r="B11">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O11,IF(Main!$R$7="Weapon 2",calculations2!O11,IF(Main!$R$7="Weapon 3",calculations3!O11,IF(Main!$R$7="Weapon 4",calculations4!O11,calculations2!$P11))))</f>
-        <v>45.332999999999998</v>
+        <v>66.667000000000002</v>
       </c>
       <c r="C11">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P11,IF(Main!$R$7="Weapon 2",calculations2!P11,IF(Main!$R$7="Weapon 3",calculations3!P11,IF(Main!$R$7="Weapon 4",calculations4!P11,calculations3!$P11))))</f>
@@ -28478,11 +28478,11 @@
       </c>
       <c r="F11">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q11,IF(Main!$R$7="Weapon 2",calculations2!Q11,IF(Main!$R$7="Weapon 3",calculations3!Q11,IF(Main!$R$7="Weapon 4",calculations4!Q11,calculations!$R11))))</f>
-        <v>7.194</v>
+        <v>7.1079999999999997</v>
       </c>
       <c r="G11">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R11,IF(Main!$R$7="Weapon 2",calculations2!R11,IF(Main!$R$7="Weapon 3",calculations3!R11,IF(Main!$R$7="Weapon 4",calculations4!R11,calculations2!$R11))))</f>
-        <v>7.1079999999999997</v>
+        <v>7.194</v>
       </c>
       <c r="H11">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R11,"")</f>
@@ -28496,11 +28496,11 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N12,IF(Main!$R$7="Weapon 2",calculations2!N12,IF(Main!$R$7="Weapon 3",calculations3!N12,IF(Main!$R$7="Weapon 4",calculations4!N12,calculations!$P12))))</f>
-        <v>67.778000000000006</v>
+        <v>46.222000000000001</v>
       </c>
       <c r="B12">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O12,IF(Main!$R$7="Weapon 2",calculations2!O12,IF(Main!$R$7="Weapon 3",calculations3!O12,IF(Main!$R$7="Weapon 4",calculations4!O12,calculations2!$P12))))</f>
-        <v>46.222000000000001</v>
+        <v>67.778000000000006</v>
       </c>
       <c r="C12">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P12,IF(Main!$R$7="Weapon 2",calculations2!P12,IF(Main!$R$7="Weapon 3",calculations3!P12,IF(Main!$R$7="Weapon 4",calculations4!P12,calculations3!$P12))))</f>
@@ -28516,11 +28516,11 @@
       </c>
       <c r="F12">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q12,IF(Main!$R$7="Weapon 2",calculations2!Q12,IF(Main!$R$7="Weapon 3",calculations3!Q12,IF(Main!$R$7="Weapon 4",calculations4!Q12,calculations!$R12))))</f>
-        <v>7.3079999999999998</v>
+        <v>7.242</v>
       </c>
       <c r="G12">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R12,IF(Main!$R$7="Weapon 2",calculations2!R12,IF(Main!$R$7="Weapon 3",calculations3!R12,IF(Main!$R$7="Weapon 4",calculations4!R12,calculations2!$R12))))</f>
-        <v>7.242</v>
+        <v>7.3079999999999998</v>
       </c>
       <c r="H12">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R12,"")</f>
@@ -28534,11 +28534,11 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N13,IF(Main!$R$7="Weapon 2",calculations2!N13,IF(Main!$R$7="Weapon 3",calculations3!N13,IF(Main!$R$7="Weapon 4",calculations4!N13,calculations!$P13))))</f>
-        <v>68.888999999999996</v>
+        <v>47.110999999999997</v>
       </c>
       <c r="B13">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O13,IF(Main!$R$7="Weapon 2",calculations2!O13,IF(Main!$R$7="Weapon 3",calculations3!O13,IF(Main!$R$7="Weapon 4",calculations4!O13,calculations2!$P13))))</f>
-        <v>47.110999999999997</v>
+        <v>68.888999999999996</v>
       </c>
       <c r="C13">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P13,IF(Main!$R$7="Weapon 2",calculations2!P13,IF(Main!$R$7="Weapon 3",calculations3!P13,IF(Main!$R$7="Weapon 4",calculations4!P13,calculations3!$P13))))</f>
@@ -28554,11 +28554,11 @@
       </c>
       <c r="F13">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q13,IF(Main!$R$7="Weapon 2",calculations2!Q13,IF(Main!$R$7="Weapon 3",calculations3!Q13,IF(Main!$R$7="Weapon 4",calculations4!Q13,calculations!$R13))))</f>
-        <v>7.4169999999999998</v>
+        <v>7.3760000000000003</v>
       </c>
       <c r="G13">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R13,IF(Main!$R$7="Weapon 2",calculations2!R13,IF(Main!$R$7="Weapon 3",calculations3!R13,IF(Main!$R$7="Weapon 4",calculations4!R13,calculations2!$R13))))</f>
-        <v>7.3760000000000003</v>
+        <v>7.4169999999999998</v>
       </c>
       <c r="H13">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R13,"")</f>
@@ -28572,11 +28572,11 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N14,IF(Main!$R$7="Weapon 2",calculations2!N14,IF(Main!$R$7="Weapon 3",calculations3!N14,IF(Main!$R$7="Weapon 4",calculations4!N14,calculations!$P14))))</f>
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O14,IF(Main!$R$7="Weapon 2",calculations2!O14,IF(Main!$R$7="Weapon 3",calculations3!O14,IF(Main!$R$7="Weapon 4",calculations4!O14,calculations2!$P14))))</f>
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P14,IF(Main!$R$7="Weapon 2",calculations2!P14,IF(Main!$R$7="Weapon 3",calculations3!P14,IF(Main!$R$7="Weapon 4",calculations4!P14,calculations3!$P14))))</f>
@@ -28592,11 +28592,11 @@
       </c>
       <c r="F14">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q14,IF(Main!$R$7="Weapon 2",calculations2!Q14,IF(Main!$R$7="Weapon 3",calculations3!Q14,IF(Main!$R$7="Weapon 4",calculations4!Q14,calculations!$R14))))</f>
-        <v>7.5309999999999997</v>
+        <v>7.5090000000000003</v>
       </c>
       <c r="G14">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R14,IF(Main!$R$7="Weapon 2",calculations2!R14,IF(Main!$R$7="Weapon 3",calculations3!R14,IF(Main!$R$7="Weapon 4",calculations4!R14,calculations2!$R14))))</f>
-        <v>7.5090000000000003</v>
+        <v>7.5309999999999997</v>
       </c>
       <c r="H14">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R14,"")</f>
@@ -28610,11 +28610,11 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N15,IF(Main!$R$7="Weapon 2",calculations2!N15,IF(Main!$R$7="Weapon 3",calculations3!N15,IF(Main!$R$7="Weapon 4",calculations4!N15,calculations!$P15))))</f>
-        <v>69.614999999999995</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O15,IF(Main!$R$7="Weapon 2",calculations2!O15,IF(Main!$R$7="Weapon 3",calculations3!O15,IF(Main!$R$7="Weapon 4",calculations4!O15,calculations2!$P15))))</f>
-        <v>47</v>
+        <v>69.614999999999995</v>
       </c>
       <c r="C15">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P15,IF(Main!$R$7="Weapon 2",calculations2!P15,IF(Main!$R$7="Weapon 3",calculations3!P15,IF(Main!$R$7="Weapon 4",calculations4!P15,calculations3!$P15))))</f>
@@ -28630,11 +28630,11 @@
       </c>
       <c r="F15">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q15,IF(Main!$R$7="Weapon 2",calculations2!Q15,IF(Main!$R$7="Weapon 3",calculations3!Q15,IF(Main!$R$7="Weapon 4",calculations4!Q15,calculations!$R15))))</f>
-        <v>7.48</v>
+        <v>7.3490000000000002</v>
       </c>
       <c r="G15">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R15,IF(Main!$R$7="Weapon 2",calculations2!R15,IF(Main!$R$7="Weapon 3",calculations3!R15,IF(Main!$R$7="Weapon 4",calculations4!R15,calculations2!$R15))))</f>
-        <v>7.3490000000000002</v>
+        <v>7.48</v>
       </c>
       <c r="H15">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R15,"")</f>
@@ -28648,11 +28648,11 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N16,IF(Main!$R$7="Weapon 2",calculations2!N16,IF(Main!$R$7="Weapon 3",calculations3!N16,IF(Main!$R$7="Weapon 4",calculations4!N16,calculations!$P16))))</f>
-        <v>69.230999999999995</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O16,IF(Main!$R$7="Weapon 2",calculations2!O16,IF(Main!$R$7="Weapon 3",calculations3!O16,IF(Main!$R$7="Weapon 4",calculations4!O16,calculations2!$P16))))</f>
-        <v>46</v>
+        <v>69.230999999999995</v>
       </c>
       <c r="C16">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P16,IF(Main!$R$7="Weapon 2",calculations2!P16,IF(Main!$R$7="Weapon 3",calculations3!P16,IF(Main!$R$7="Weapon 4",calculations4!P16,calculations3!$P16))))</f>
@@ -28668,11 +28668,11 @@
       </c>
       <c r="F16">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q16,IF(Main!$R$7="Weapon 2",calculations2!Q16,IF(Main!$R$7="Weapon 3",calculations3!Q16,IF(Main!$R$7="Weapon 4",calculations4!Q16,calculations!$R16))))</f>
-        <v>7.4349999999999996</v>
+        <v>7.1890000000000001</v>
       </c>
       <c r="G16">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R16,IF(Main!$R$7="Weapon 2",calculations2!R16,IF(Main!$R$7="Weapon 3",calculations3!R16,IF(Main!$R$7="Weapon 4",calculations4!R16,calculations2!$R16))))</f>
-        <v>7.1890000000000001</v>
+        <v>7.4349999999999996</v>
       </c>
       <c r="H16">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R16,"")</f>
@@ -28686,11 +28686,11 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N17,IF(Main!$R$7="Weapon 2",calculations2!N17,IF(Main!$R$7="Weapon 3",calculations3!N17,IF(Main!$R$7="Weapon 4",calculations4!N17,calculations!$P17))))</f>
-        <v>68.846000000000004</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O17,IF(Main!$R$7="Weapon 2",calculations2!O17,IF(Main!$R$7="Weapon 3",calculations3!O17,IF(Main!$R$7="Weapon 4",calculations4!O17,calculations2!$P17))))</f>
-        <v>45</v>
+        <v>68.846000000000004</v>
       </c>
       <c r="C17">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P17,IF(Main!$R$7="Weapon 2",calculations2!P17,IF(Main!$R$7="Weapon 3",calculations3!P17,IF(Main!$R$7="Weapon 4",calculations4!P17,calculations3!$P17))))</f>
@@ -28706,11 +28706,11 @@
       </c>
       <c r="F17">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q17,IF(Main!$R$7="Weapon 2",calculations2!Q17,IF(Main!$R$7="Weapon 3",calculations3!Q17,IF(Main!$R$7="Weapon 4",calculations4!Q17,calculations!$R17))))</f>
-        <v>7.3890000000000002</v>
+        <v>7.0279999999999996</v>
       </c>
       <c r="G17">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R17,IF(Main!$R$7="Weapon 2",calculations2!R17,IF(Main!$R$7="Weapon 3",calculations3!R17,IF(Main!$R$7="Weapon 4",calculations4!R17,calculations2!$R17))))</f>
-        <v>7.0279999999999996</v>
+        <v>7.3890000000000002</v>
       </c>
       <c r="H17">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R17,"")</f>
@@ -28724,11 +28724,11 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N18,IF(Main!$R$7="Weapon 2",calculations2!N18,IF(Main!$R$7="Weapon 3",calculations3!N18,IF(Main!$R$7="Weapon 4",calculations4!N18,calculations!$P18))))</f>
-        <v>68.462000000000003</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O18,IF(Main!$R$7="Weapon 2",calculations2!O18,IF(Main!$R$7="Weapon 3",calculations3!O18,IF(Main!$R$7="Weapon 4",calculations4!O18,calculations2!$P18))))</f>
-        <v>44</v>
+        <v>68.462000000000003</v>
       </c>
       <c r="C18">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P18,IF(Main!$R$7="Weapon 2",calculations2!P18,IF(Main!$R$7="Weapon 3",calculations3!P18,IF(Main!$R$7="Weapon 4",calculations4!P18,calculations3!$P18))))</f>
@@ -28744,11 +28744,11 @@
       </c>
       <c r="F18">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q18,IF(Main!$R$7="Weapon 2",calculations2!Q18,IF(Main!$R$7="Weapon 3",calculations3!Q18,IF(Main!$R$7="Weapon 4",calculations4!Q18,calculations!$R18))))</f>
-        <v>7.3390000000000004</v>
+        <v>6.8689999999999998</v>
       </c>
       <c r="G18">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R18,IF(Main!$R$7="Weapon 2",calculations2!R18,IF(Main!$R$7="Weapon 3",calculations3!R18,IF(Main!$R$7="Weapon 4",calculations4!R18,calculations2!$R18))))</f>
-        <v>6.8689999999999998</v>
+        <v>7.3390000000000004</v>
       </c>
       <c r="H18">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R18,"")</f>
@@ -28762,11 +28762,11 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N19,IF(Main!$R$7="Weapon 2",calculations2!N19,IF(Main!$R$7="Weapon 3",calculations3!N19,IF(Main!$R$7="Weapon 4",calculations4!N19,calculations!$P19))))</f>
-        <v>68.076999999999998</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O19,IF(Main!$R$7="Weapon 2",calculations2!O19,IF(Main!$R$7="Weapon 3",calculations3!O19,IF(Main!$R$7="Weapon 4",calculations4!O19,calculations2!$P19))))</f>
-        <v>43</v>
+        <v>68.076999999999998</v>
       </c>
       <c r="C19">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P19,IF(Main!$R$7="Weapon 2",calculations2!P19,IF(Main!$R$7="Weapon 3",calculations3!P19,IF(Main!$R$7="Weapon 4",calculations4!P19,calculations3!$P19))))</f>
@@ -28782,11 +28782,11 @@
       </c>
       <c r="F19">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q19,IF(Main!$R$7="Weapon 2",calculations2!Q19,IF(Main!$R$7="Weapon 3",calculations3!Q19,IF(Main!$R$7="Weapon 4",calculations4!Q19,calculations!$R19))))</f>
-        <v>7.2939999999999996</v>
+        <v>6.7110000000000003</v>
       </c>
       <c r="G19">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R19,IF(Main!$R$7="Weapon 2",calculations2!R19,IF(Main!$R$7="Weapon 3",calculations3!R19,IF(Main!$R$7="Weapon 4",calculations4!R19,calculations2!$R19))))</f>
-        <v>6.7110000000000003</v>
+        <v>7.2939999999999996</v>
       </c>
       <c r="H19">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R19,"")</f>
@@ -28800,11 +28800,11 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N20,IF(Main!$R$7="Weapon 2",calculations2!N20,IF(Main!$R$7="Weapon 3",calculations3!N20,IF(Main!$R$7="Weapon 4",calculations4!N20,calculations!$P20))))</f>
-        <v>67.691999999999993</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O20,IF(Main!$R$7="Weapon 2",calculations2!O20,IF(Main!$R$7="Weapon 3",calculations3!O20,IF(Main!$R$7="Weapon 4",calculations4!O20,calculations2!$P20))))</f>
-        <v>42</v>
+        <v>67.691999999999993</v>
       </c>
       <c r="C20">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P20,IF(Main!$R$7="Weapon 2",calculations2!P20,IF(Main!$R$7="Weapon 3",calculations3!P20,IF(Main!$R$7="Weapon 4",calculations4!P20,calculations3!$P20))))</f>
@@ -28820,11 +28820,11 @@
       </c>
       <c r="F20">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q20,IF(Main!$R$7="Weapon 2",calculations2!Q20,IF(Main!$R$7="Weapon 3",calculations3!Q20,IF(Main!$R$7="Weapon 4",calculations4!Q20,calculations!$R20))))</f>
-        <v>7.2439999999999998</v>
+        <v>6.5529999999999999</v>
       </c>
       <c r="G20">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R20,IF(Main!$R$7="Weapon 2",calculations2!R20,IF(Main!$R$7="Weapon 3",calculations3!R20,IF(Main!$R$7="Weapon 4",calculations4!R20,calculations2!$R20))))</f>
-        <v>6.5529999999999999</v>
+        <v>7.2439999999999998</v>
       </c>
       <c r="H20">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R20,"")</f>
@@ -28838,11 +28838,11 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N21,IF(Main!$R$7="Weapon 2",calculations2!N21,IF(Main!$R$7="Weapon 3",calculations3!N21,IF(Main!$R$7="Weapon 4",calculations4!N21,calculations!$P21))))</f>
-        <v>67.308000000000007</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O21,IF(Main!$R$7="Weapon 2",calculations2!O21,IF(Main!$R$7="Weapon 3",calculations3!O21,IF(Main!$R$7="Weapon 4",calculations4!O21,calculations2!$P21))))</f>
-        <v>41</v>
+        <v>67.308000000000007</v>
       </c>
       <c r="C21">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P21,IF(Main!$R$7="Weapon 2",calculations2!P21,IF(Main!$R$7="Weapon 3",calculations3!P21,IF(Main!$R$7="Weapon 4",calculations4!P21,calculations3!$P21))))</f>
@@ -28858,11 +28858,11 @@
       </c>
       <c r="F21">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q21,IF(Main!$R$7="Weapon 2",calculations2!Q21,IF(Main!$R$7="Weapon 3",calculations3!Q21,IF(Main!$R$7="Weapon 4",calculations4!Q21,calculations!$R21))))</f>
-        <v>7.1989999999999998</v>
+        <v>6.3949999999999996</v>
       </c>
       <c r="G21">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R21,IF(Main!$R$7="Weapon 2",calculations2!R21,IF(Main!$R$7="Weapon 3",calculations3!R21,IF(Main!$R$7="Weapon 4",calculations4!R21,calculations2!$R21))))</f>
-        <v>6.3949999999999996</v>
+        <v>7.1989999999999998</v>
       </c>
       <c r="H21">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R21,"")</f>
@@ -28876,11 +28876,11 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N22,IF(Main!$R$7="Weapon 2",calculations2!N22,IF(Main!$R$7="Weapon 3",calculations3!N22,IF(Main!$R$7="Weapon 4",calculations4!N22,calculations!$P22))))</f>
-        <v>66.923000000000002</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O22,IF(Main!$R$7="Weapon 2",calculations2!O22,IF(Main!$R$7="Weapon 3",calculations3!O22,IF(Main!$R$7="Weapon 4",calculations4!O22,calculations2!$P22))))</f>
-        <v>40</v>
+        <v>66.923000000000002</v>
       </c>
       <c r="C22">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P22,IF(Main!$R$7="Weapon 2",calculations2!P22,IF(Main!$R$7="Weapon 3",calculations3!P22,IF(Main!$R$7="Weapon 4",calculations4!P22,calculations3!$P22))))</f>
@@ -28896,11 +28896,11 @@
       </c>
       <c r="F22">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q22,IF(Main!$R$7="Weapon 2",calculations2!Q22,IF(Main!$R$7="Weapon 3",calculations3!Q22,IF(Main!$R$7="Weapon 4",calculations4!Q22,calculations!$R22))))</f>
-        <v>7.15</v>
+        <v>6.2370000000000001</v>
       </c>
       <c r="G22">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R22,IF(Main!$R$7="Weapon 2",calculations2!R22,IF(Main!$R$7="Weapon 3",calculations3!R22,IF(Main!$R$7="Weapon 4",calculations4!R22,calculations2!$R22))))</f>
-        <v>6.2370000000000001</v>
+        <v>7.15</v>
       </c>
       <c r="H22">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R22,"")</f>
@@ -28914,11 +28914,11 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N23,IF(Main!$R$7="Weapon 2",calculations2!N23,IF(Main!$R$7="Weapon 3",calculations3!N23,IF(Main!$R$7="Weapon 4",calculations4!N23,calculations!$P23))))</f>
-        <v>66.537999999999997</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O23,IF(Main!$R$7="Weapon 2",calculations2!O23,IF(Main!$R$7="Weapon 3",calculations3!O23,IF(Main!$R$7="Weapon 4",calculations4!O23,calculations2!$P23))))</f>
-        <v>39</v>
+        <v>66.537999999999997</v>
       </c>
       <c r="C23">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P23,IF(Main!$R$7="Weapon 2",calculations2!P23,IF(Main!$R$7="Weapon 3",calculations3!P23,IF(Main!$R$7="Weapon 4",calculations4!P23,calculations3!$P23))))</f>
@@ -28934,11 +28934,11 @@
       </c>
       <c r="F23">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q23,IF(Main!$R$7="Weapon 2",calculations2!Q23,IF(Main!$R$7="Weapon 3",calculations3!Q23,IF(Main!$R$7="Weapon 4",calculations4!Q23,calculations!$R23))))</f>
-        <v>7.1050000000000004</v>
+        <v>6.0780000000000003</v>
       </c>
       <c r="G23">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R23,IF(Main!$R$7="Weapon 2",calculations2!R23,IF(Main!$R$7="Weapon 3",calculations3!R23,IF(Main!$R$7="Weapon 4",calculations4!R23,calculations2!$R23))))</f>
-        <v>6.0780000000000003</v>
+        <v>7.1050000000000004</v>
       </c>
       <c r="H23">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R23,"")</f>
@@ -28952,11 +28952,11 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N24,IF(Main!$R$7="Weapon 2",calculations2!N24,IF(Main!$R$7="Weapon 3",calculations3!N24,IF(Main!$R$7="Weapon 4",calculations4!N24,calculations!$P24))))</f>
-        <v>66.153999999999996</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O24,IF(Main!$R$7="Weapon 2",calculations2!O24,IF(Main!$R$7="Weapon 3",calculations3!O24,IF(Main!$R$7="Weapon 4",calculations4!O24,calculations2!$P24))))</f>
-        <v>38</v>
+        <v>66.153999999999996</v>
       </c>
       <c r="C24">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P24,IF(Main!$R$7="Weapon 2",calculations2!P24,IF(Main!$R$7="Weapon 3",calculations3!P24,IF(Main!$R$7="Weapon 4",calculations4!P24,calculations3!$P24))))</f>
@@ -28972,11 +28972,11 @@
       </c>
       <c r="F24">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q24,IF(Main!$R$7="Weapon 2",calculations2!Q24,IF(Main!$R$7="Weapon 3",calculations3!Q24,IF(Main!$R$7="Weapon 4",calculations4!Q24,calculations!$R24))))</f>
-        <v>7.06</v>
+        <v>5.9210000000000003</v>
       </c>
       <c r="G24">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R24,IF(Main!$R$7="Weapon 2",calculations2!R24,IF(Main!$R$7="Weapon 3",calculations3!R24,IF(Main!$R$7="Weapon 4",calculations4!R24,calculations2!$R24))))</f>
-        <v>5.9210000000000003</v>
+        <v>7.06</v>
       </c>
       <c r="H24">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R24,"")</f>
@@ -28990,11 +28990,11 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N25,IF(Main!$R$7="Weapon 2",calculations2!N25,IF(Main!$R$7="Weapon 3",calculations3!N25,IF(Main!$R$7="Weapon 4",calculations4!N25,calculations!$P25))))</f>
-        <v>65.769000000000005</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O25,IF(Main!$R$7="Weapon 2",calculations2!O25,IF(Main!$R$7="Weapon 3",calculations3!O25,IF(Main!$R$7="Weapon 4",calculations4!O25,calculations2!$P25))))</f>
-        <v>37</v>
+        <v>65.769000000000005</v>
       </c>
       <c r="C25">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P25,IF(Main!$R$7="Weapon 2",calculations2!P25,IF(Main!$R$7="Weapon 3",calculations3!P25,IF(Main!$R$7="Weapon 4",calculations4!P25,calculations3!$P25))))</f>
@@ -29010,11 +29010,11 @@
       </c>
       <c r="F25">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q25,IF(Main!$R$7="Weapon 2",calculations2!Q25,IF(Main!$R$7="Weapon 3",calculations3!Q25,IF(Main!$R$7="Weapon 4",calculations4!Q25,calculations!$R25))))</f>
-        <v>7.0110000000000001</v>
+        <v>5.7640000000000002</v>
       </c>
       <c r="G25">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R25,IF(Main!$R$7="Weapon 2",calculations2!R25,IF(Main!$R$7="Weapon 3",calculations3!R25,IF(Main!$R$7="Weapon 4",calculations4!R25,calculations2!$R25))))</f>
-        <v>5.7640000000000002</v>
+        <v>7.0110000000000001</v>
       </c>
       <c r="H25">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R25,"")</f>
@@ -29028,11 +29028,11 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N26,IF(Main!$R$7="Weapon 2",calculations2!N26,IF(Main!$R$7="Weapon 3",calculations3!N26,IF(Main!$R$7="Weapon 4",calculations4!N26,calculations!$P26))))</f>
-        <v>65.385000000000005</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O26,IF(Main!$R$7="Weapon 2",calculations2!O26,IF(Main!$R$7="Weapon 3",calculations3!O26,IF(Main!$R$7="Weapon 4",calculations4!O26,calculations2!$P26))))</f>
-        <v>36</v>
+        <v>65.385000000000005</v>
       </c>
       <c r="C26">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P26,IF(Main!$R$7="Weapon 2",calculations2!P26,IF(Main!$R$7="Weapon 3",calculations3!P26,IF(Main!$R$7="Weapon 4",calculations4!P26,calculations3!$P26))))</f>
@@ -29048,11 +29048,11 @@
       </c>
       <c r="F26">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q26,IF(Main!$R$7="Weapon 2",calculations2!Q26,IF(Main!$R$7="Weapon 3",calculations3!Q26,IF(Main!$R$7="Weapon 4",calculations4!Q26,calculations!$R26))))</f>
-        <v>6.9669999999999996</v>
+        <v>5.6079999999999997</v>
       </c>
       <c r="G26">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R26,IF(Main!$R$7="Weapon 2",calculations2!R26,IF(Main!$R$7="Weapon 3",calculations3!R26,IF(Main!$R$7="Weapon 4",calculations4!R26,calculations2!$R26))))</f>
-        <v>5.6079999999999997</v>
+        <v>6.9669999999999996</v>
       </c>
       <c r="H26">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R26,"")</f>
@@ -29066,11 +29066,11 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N27,IF(Main!$R$7="Weapon 2",calculations2!N27,IF(Main!$R$7="Weapon 3",calculations3!N27,IF(Main!$R$7="Weapon 4",calculations4!N27,calculations!$P27))))</f>
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O27,IF(Main!$R$7="Weapon 2",calculations2!O27,IF(Main!$R$7="Weapon 3",calculations3!O27,IF(Main!$R$7="Weapon 4",calculations4!O27,calculations2!$P27))))</f>
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P27,IF(Main!$R$7="Weapon 2",calculations2!P27,IF(Main!$R$7="Weapon 3",calculations3!P27,IF(Main!$R$7="Weapon 4",calculations4!P27,calculations3!$P27))))</f>
@@ -29086,11 +29086,11 @@
       </c>
       <c r="F27">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q27,IF(Main!$R$7="Weapon 2",calculations2!Q27,IF(Main!$R$7="Weapon 3",calculations3!Q27,IF(Main!$R$7="Weapon 4",calculations4!Q27,calculations!$R27))))</f>
-        <v>6.9189999999999996</v>
+        <v>5.4509999999999996</v>
       </c>
       <c r="G27">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R27,IF(Main!$R$7="Weapon 2",calculations2!R27,IF(Main!$R$7="Weapon 3",calculations3!R27,IF(Main!$R$7="Weapon 4",calculations4!R27,calculations2!$R27))))</f>
-        <v>5.4509999999999996</v>
+        <v>6.9189999999999996</v>
       </c>
       <c r="H27">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R27,"")</f>
@@ -29102,13 +29102,13 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N28,IF(Main!$R$7="Weapon 2",calculations2!N28,IF(Main!$R$7="Weapon 3",calculations3!N28,IF(Main!$R$7="Weapon 4",calculations4!N28,calculations!$P28))))</f>
+      <c r="A28" t="str">
+        <f>IF(Main!$R$7="Weapon 1",calculations!N28,IF(Main!$R$7="Weapon 2",calculations2!N28,IF(Main!$R$7="Weapon 3",calculations3!N28,IF(Main!$R$7="Weapon 4",calculations4!N28,calculations!$P28))))</f>
+        <v>-</v>
+      </c>
+      <c r="B28">
+        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O28,IF(Main!$R$7="Weapon 2",calculations2!O28,IF(Main!$R$7="Weapon 3",calculations3!O28,IF(Main!$R$7="Weapon 4",calculations4!O28,calculations2!$P28))))</f>
         <v>64.332999999999998</v>
-      </c>
-      <c r="B28" t="str">
-        <f>IF(Main!$R$7="Weapon 1",calculations!O28,IF(Main!$R$7="Weapon 2",calculations2!O28,IF(Main!$R$7="Weapon 3",calculations3!O28,IF(Main!$R$7="Weapon 4",calculations4!O28,calculations2!$P28))))</f>
-        <v>-</v>
       </c>
       <c r="C28">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P28,IF(Main!$R$7="Weapon 2",calculations2!P28,IF(Main!$R$7="Weapon 3",calculations3!P28,IF(Main!$R$7="Weapon 4",calculations4!P28,calculations3!$P28))))</f>
@@ -29122,13 +29122,13 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F28">
-        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q28,IF(Main!$R$7="Weapon 2",calculations2!Q28,IF(Main!$R$7="Weapon 3",calculations3!Q28,IF(Main!$R$7="Weapon 4",calculations4!Q28,calculations!$R28))))</f>
+      <c r="F28" t="str">
+        <f>IF(Main!$R$7="Weapon 1",calculations!Q28,IF(Main!$R$7="Weapon 2",calculations2!Q28,IF(Main!$R$7="Weapon 3",calculations3!Q28,IF(Main!$R$7="Weapon 4",calculations4!Q28,calculations!$R28))))</f>
+        <v>-</v>
+      </c>
+      <c r="G28">
+        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R28,IF(Main!$R$7="Weapon 2",calculations2!R28,IF(Main!$R$7="Weapon 3",calculations3!R28,IF(Main!$R$7="Weapon 4",calculations4!R28,calculations2!$R28))))</f>
         <v>6.8449999999999998</v>
-      </c>
-      <c r="G28" t="str">
-        <f>IF(Main!$R$7="Weapon 1",calculations!R28,IF(Main!$R$7="Weapon 2",calculations2!R28,IF(Main!$R$7="Weapon 3",calculations3!R28,IF(Main!$R$7="Weapon 4",calculations4!R28,calculations2!$R28))))</f>
-        <v>-</v>
       </c>
       <c r="H28">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R28,"")</f>
@@ -29140,13 +29140,13 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N29,IF(Main!$R$7="Weapon 2",calculations2!N29,IF(Main!$R$7="Weapon 3",calculations3!N29,IF(Main!$R$7="Weapon 4",calculations4!N29,calculations!$P29))))</f>
+      <c r="A29" t="str">
+        <f>IF(Main!$R$7="Weapon 1",calculations!N29,IF(Main!$R$7="Weapon 2",calculations2!N29,IF(Main!$R$7="Weapon 3",calculations3!N29,IF(Main!$R$7="Weapon 4",calculations4!N29,calculations!$P29))))</f>
+        <v>-</v>
+      </c>
+      <c r="B29">
+        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O29,IF(Main!$R$7="Weapon 2",calculations2!O29,IF(Main!$R$7="Weapon 3",calculations3!O29,IF(Main!$R$7="Weapon 4",calculations4!O29,calculations2!$P29))))</f>
         <v>63.667000000000002</v>
-      </c>
-      <c r="B29" t="str">
-        <f>IF(Main!$R$7="Weapon 1",calculations!O29,IF(Main!$R$7="Weapon 2",calculations2!O29,IF(Main!$R$7="Weapon 3",calculations3!O29,IF(Main!$R$7="Weapon 4",calculations4!O29,calculations2!$P29))))</f>
-        <v>-</v>
       </c>
       <c r="C29">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P29,IF(Main!$R$7="Weapon 2",calculations2!P29,IF(Main!$R$7="Weapon 3",calculations3!P29,IF(Main!$R$7="Weapon 4",calculations4!P29,calculations3!$P29))))</f>
@@ -29160,13 +29160,13 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F29">
-        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q29,IF(Main!$R$7="Weapon 2",calculations2!Q29,IF(Main!$R$7="Weapon 3",calculations3!Q29,IF(Main!$R$7="Weapon 4",calculations4!Q29,calculations!$R29))))</f>
+      <c r="F29" t="str">
+        <f>IF(Main!$R$7="Weapon 1",calculations!Q29,IF(Main!$R$7="Weapon 2",calculations2!Q29,IF(Main!$R$7="Weapon 3",calculations3!Q29,IF(Main!$R$7="Weapon 4",calculations4!Q29,calculations!$R29))))</f>
+        <v>-</v>
+      </c>
+      <c r="G29">
+        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R29,IF(Main!$R$7="Weapon 2",calculations2!R29,IF(Main!$R$7="Weapon 3",calculations3!R29,IF(Main!$R$7="Weapon 4",calculations4!R29,calculations2!$R29))))</f>
         <v>6.7679999999999998</v>
-      </c>
-      <c r="G29" t="str">
-        <f>IF(Main!$R$7="Weapon 1",calculations!R29,IF(Main!$R$7="Weapon 2",calculations2!R29,IF(Main!$R$7="Weapon 3",calculations3!R29,IF(Main!$R$7="Weapon 4",calculations4!R29,calculations2!$R29))))</f>
-        <v>-</v>
       </c>
       <c r="H29">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R29,"")</f>
@@ -29178,13 +29178,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N30,IF(Main!$R$7="Weapon 2",calculations2!N30,IF(Main!$R$7="Weapon 3",calculations3!N30,IF(Main!$R$7="Weapon 4",calculations4!N30,calculations!$P30))))</f>
+      <c r="A30" t="str">
+        <f>IF(Main!$R$7="Weapon 1",calculations!N30,IF(Main!$R$7="Weapon 2",calculations2!N30,IF(Main!$R$7="Weapon 3",calculations3!N30,IF(Main!$R$7="Weapon 4",calculations4!N30,calculations!$P30))))</f>
+        <v>-</v>
+      </c>
+      <c r="B30">
+        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O30,IF(Main!$R$7="Weapon 2",calculations2!O30,IF(Main!$R$7="Weapon 3",calculations3!O30,IF(Main!$R$7="Weapon 4",calculations4!O30,calculations2!$P30))))</f>
         <v>63</v>
-      </c>
-      <c r="B30" t="str">
-        <f>IF(Main!$R$7="Weapon 1",calculations!O30,IF(Main!$R$7="Weapon 2",calculations2!O30,IF(Main!$R$7="Weapon 3",calculations3!O30,IF(Main!$R$7="Weapon 4",calculations4!O30,calculations2!$P30))))</f>
-        <v>-</v>
       </c>
       <c r="C30">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P30,IF(Main!$R$7="Weapon 2",calculations2!P30,IF(Main!$R$7="Weapon 3",calculations3!P30,IF(Main!$R$7="Weapon 4",calculations4!P30,calculations3!$P30))))</f>
@@ -29198,13 +29198,13 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F30">
-        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q30,IF(Main!$R$7="Weapon 2",calculations2!Q30,IF(Main!$R$7="Weapon 3",calculations3!Q30,IF(Main!$R$7="Weapon 4",calculations4!Q30,calculations!$R30))))</f>
+      <c r="F30" t="str">
+        <f>IF(Main!$R$7="Weapon 1",calculations!Q30,IF(Main!$R$7="Weapon 2",calculations2!Q30,IF(Main!$R$7="Weapon 3",calculations3!Q30,IF(Main!$R$7="Weapon 4",calculations4!Q30,calculations!$R30))))</f>
+        <v>-</v>
+      </c>
+      <c r="G30">
+        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R30,IF(Main!$R$7="Weapon 2",calculations2!R30,IF(Main!$R$7="Weapon 3",calculations3!R30,IF(Main!$R$7="Weapon 4",calculations4!R30,calculations2!$R30))))</f>
         <v>6.6950000000000003</v>
-      </c>
-      <c r="G30" t="str">
-        <f>IF(Main!$R$7="Weapon 1",calculations!R30,IF(Main!$R$7="Weapon 2",calculations2!R30,IF(Main!$R$7="Weapon 3",calculations3!R30,IF(Main!$R$7="Weapon 4",calculations4!R30,calculations2!$R30))))</f>
-        <v>-</v>
       </c>
       <c r="H30">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R30,"")</f>
@@ -29216,13 +29216,13 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N31,IF(Main!$R$7="Weapon 2",calculations2!N31,IF(Main!$R$7="Weapon 3",calculations3!N31,IF(Main!$R$7="Weapon 4",calculations4!N31,calculations!$P31))))</f>
+      <c r="A31" t="str">
+        <f>IF(Main!$R$7="Weapon 1",calculations!N31,IF(Main!$R$7="Weapon 2",calculations2!N31,IF(Main!$R$7="Weapon 3",calculations3!N31,IF(Main!$R$7="Weapon 4",calculations4!N31,calculations!$P31))))</f>
+        <v>-</v>
+      </c>
+      <c r="B31">
+        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O31,IF(Main!$R$7="Weapon 2",calculations2!O31,IF(Main!$R$7="Weapon 3",calculations3!O31,IF(Main!$R$7="Weapon 4",calculations4!O31,calculations2!$P31))))</f>
         <v>62.332999999999998</v>
-      </c>
-      <c r="B31" t="str">
-        <f>IF(Main!$R$7="Weapon 1",calculations!O31,IF(Main!$R$7="Weapon 2",calculations2!O31,IF(Main!$R$7="Weapon 3",calculations3!O31,IF(Main!$R$7="Weapon 4",calculations4!O31,calculations2!$P31))))</f>
-        <v>-</v>
       </c>
       <c r="C31">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P31,IF(Main!$R$7="Weapon 2",calculations2!P31,IF(Main!$R$7="Weapon 3",calculations3!P31,IF(Main!$R$7="Weapon 4",calculations4!P31,calculations3!$P31))))</f>
@@ -29236,13 +29236,13 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F31">
-        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q31,IF(Main!$R$7="Weapon 2",calculations2!Q31,IF(Main!$R$7="Weapon 3",calculations3!Q31,IF(Main!$R$7="Weapon 4",calculations4!Q31,calculations!$R31))))</f>
+      <c r="F31" t="str">
+        <f>IF(Main!$R$7="Weapon 1",calculations!Q31,IF(Main!$R$7="Weapon 2",calculations2!Q31,IF(Main!$R$7="Weapon 3",calculations3!Q31,IF(Main!$R$7="Weapon 4",calculations4!Q31,calculations!$R31))))</f>
+        <v>-</v>
+      </c>
+      <c r="G31">
+        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R31,IF(Main!$R$7="Weapon 2",calculations2!R31,IF(Main!$R$7="Weapon 3",calculations3!R31,IF(Main!$R$7="Weapon 4",calculations4!R31,calculations2!$R31))))</f>
         <v>6.6210000000000004</v>
-      </c>
-      <c r="G31" t="str">
-        <f>IF(Main!$R$7="Weapon 1",calculations!R31,IF(Main!$R$7="Weapon 2",calculations2!R31,IF(Main!$R$7="Weapon 3",calculations3!R31,IF(Main!$R$7="Weapon 4",calculations4!R31,calculations2!$R31))))</f>
-        <v>-</v>
       </c>
       <c r="H31">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R31,"")</f>
@@ -29254,13 +29254,13 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!N32,IF(Main!$R$7="Weapon 2",calculations2!N32,IF(Main!$R$7="Weapon 3",calculations3!N32,IF(Main!$R$7="Weapon 4",calculations4!N32,calculations!$P32))))</f>
+      <c r="A32" t="str">
+        <f>IF(Main!$R$7="Weapon 1",calculations!N32,IF(Main!$R$7="Weapon 2",calculations2!N32,IF(Main!$R$7="Weapon 3",calculations3!N32,IF(Main!$R$7="Weapon 4",calculations4!N32,calculations!$P32))))</f>
+        <v>-</v>
+      </c>
+      <c r="B32">
+        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!O32,IF(Main!$R$7="Weapon 2",calculations2!O32,IF(Main!$R$7="Weapon 3",calculations3!O32,IF(Main!$R$7="Weapon 4",calculations4!O32,calculations2!$P32))))</f>
         <v>61.667000000000002</v>
-      </c>
-      <c r="B32" t="str">
-        <f>IF(Main!$R$7="Weapon 1",calculations!O32,IF(Main!$R$7="Weapon 2",calculations2!O32,IF(Main!$R$7="Weapon 3",calculations3!O32,IF(Main!$R$7="Weapon 4",calculations4!O32,calculations2!$P32))))</f>
-        <v>-</v>
       </c>
       <c r="C32">
         <f ca="1">IF(Main!$R$7="Weapon 1",calculations!P32,IF(Main!$R$7="Weapon 2",calculations2!P32,IF(Main!$R$7="Weapon 3",calculations3!P32,IF(Main!$R$7="Weapon 4",calculations4!P32,calculations3!$P32))))</f>
@@ -29274,13 +29274,13 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F32">
-        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!Q32,IF(Main!$R$7="Weapon 2",calculations2!Q32,IF(Main!$R$7="Weapon 3",calculations3!Q32,IF(Main!$R$7="Weapon 4",calculations4!Q32,calculations!$R32))))</f>
+      <c r="F32" t="str">
+        <f>IF(Main!$R$7="Weapon 1",calculations!Q32,IF(Main!$R$7="Weapon 2",calculations2!Q32,IF(Main!$R$7="Weapon 3",calculations3!Q32,IF(Main!$R$7="Weapon 4",calculations4!Q32,calculations!$R32))))</f>
+        <v>-</v>
+      </c>
+      <c r="G32">
+        <f ca="1">IF(Main!$R$7="Weapon 1",calculations!R32,IF(Main!$R$7="Weapon 2",calculations2!R32,IF(Main!$R$7="Weapon 3",calculations3!R32,IF(Main!$R$7="Weapon 4",calculations4!R32,calculations2!$R32))))</f>
         <v>6.5449999999999999</v>
-      </c>
-      <c r="G32" t="str">
-        <f>IF(Main!$R$7="Weapon 1",calculations!R32,IF(Main!$R$7="Weapon 2",calculations2!R32,IF(Main!$R$7="Weapon 3",calculations3!R32,IF(Main!$R$7="Weapon 4",calculations4!R32,calculations2!$R32))))</f>
-        <v>-</v>
       </c>
       <c r="H32">
         <f ca="1">IF(Main!$R$7="All",calculations3!$R32,"")</f>
@@ -30060,11 +30060,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32144,7 +32144,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="S28" s="4">
         <v>85</v>
@@ -34354,23 +34354,23 @@
       </c>
       <c r="O2" s="4">
         <f>IF(M2&lt;=$D$17,$G$25*100,0)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="P2" s="4">
         <f ca="1">IF(M2&lt;=$D$17,ROUND(MIN((IF(AND($D$23,M2&gt;$D$25),1,($N2/100))*($O2/100)+(1-IF(AND($D$23,M2&gt;$D$25),1,($N2/100))*($O2/100))*($G$23-1)/(IF($E$25="-",9,IF($E$25=0,2,$E$25))-1))*IF(OR($D$25="-",$M2&lt;=$D$25),1,$G$23/IF($E$25=0,1,$E$25)),1)*100,3),"-")</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" ref="Q2:Q33" ca="1" si="0">ROUND((($F$21*$D$21)/($E$17+$G$17+($D$21-1)*($E$21/60)+(IF(OR($B$23,$B$25),MAX(ROUND($M2/($G$21/100),0),1)/60,0)*S2)+IF($D$23,$E$23/60,0))+IF($F$23,6/4.5,0))*O2/100,3)</f>
-        <v>6.524</v>
+        <v>6.3090000000000002</v>
       </c>
       <c r="R2" s="4">
         <f ca="1">IF(M2&lt;=$D$17,ROUND((($F$21*$D$21)/($E$17+$G$17+($D$21-1)*($E$21/60)+(IF(OR($B$23,$B$25),MAX(ROUND($M2/($G$21/100),0),1)/60,0)*S2)+IF($D$23,$E$23/60,0))+IF($F$23,6/4.5,0))*P2/100,3),"-")</f>
-        <v>6.524</v>
+        <v>6.3090000000000002</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" ref="S2:S33" ca="1" si="1">MIN(1/($D$29/($F$21*$P2/100))^IF($B$25,1,0),1)</f>
-        <v>0.10312499999999999</v>
+        <v>6.8750000000000006E-2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -34416,23 +34416,23 @@
       </c>
       <c r="O3" s="4">
         <f>IF(M3&lt;=$D$17,$G$25*100,0)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P52" ca="1" si="3">IF(M3&lt;=$D$17,ROUND(MIN((IF(AND($D$23,M3&gt;$D$25),1,($N3/100))*($O3/100)+(1-IF(AND($D$23,M3&gt;$D$25),1,($N3/100))*($O3/100))*($G$23-1)/(IF($E$25="-",9,IF($E$25=0,2,$E$25))-1))*IF(OR($D$25="-",$M3&lt;=$D$25),1,$G$23/IF($E$25=0,1,$E$25)),1)*100,3),"-")</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.524</v>
+        <v>6.3070000000000004</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" ref="R3:R52" ca="1" si="4">IF(M3&lt;=$D$17,ROUND((($F$21*$D$21)/($E$17+$G$17+($D$21-1)*($E$21/60)+(IF(OR($B$23,$B$25),MAX(ROUND($M3/($G$21/100),0),1)/60,0)*S3)+IF($D$23,$E$23/60,0))+IF($F$23,6/4.5,0))*P3/100,3),"-")</f>
-        <v>6.524</v>
+        <v>6.3070000000000004</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10312499999999999</v>
+        <v>6.8750000000000006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -34490,23 +34490,23 @@
       </c>
       <c r="O4" s="4">
         <f>IF(M4&lt;=$D$17,$G$25*100,0)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.516</v>
+        <v>6.3040000000000003</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.516</v>
+        <v>6.3040000000000003</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10312499999999999</v>
+        <v>6.8750000000000006E-2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -34554,23 +34554,23 @@
       </c>
       <c r="O5" s="4">
         <f>IF(M5&lt;=$D$17,$G$25*100,0)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5129999999999999</v>
+        <v>6.2990000000000004</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.5129999999999999</v>
+        <v>6.2990000000000004</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10312499999999999</v>
+        <v>6.8750000000000006E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -34627,23 +34627,23 @@
       </c>
       <c r="O6" s="4">
         <f>IF(M6&lt;=$D$17,ROUND(($G$25+($D$27-$G$25)/9*(M6-3))*100,3),0)</f>
-        <v>61.110999999999997</v>
+        <v>40.889000000000003</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>61.110999999999997</v>
+        <v>40.889000000000003</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.625</v>
+        <v>6.4349999999999996</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.625</v>
+        <v>6.4349999999999996</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10503453124999999</v>
+        <v>7.0277968750000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -34691,23 +34691,23 @@
       </c>
       <c r="O7" s="4">
         <f t="shared" ref="O7:O14" si="8">IF(M7&lt;=$D$17,ROUND(($G$25+($D$27-$G$25)/9*(M7-3))*100,3),0)</f>
-        <v>62.222000000000001</v>
+        <v>41.777999999999999</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>62.222000000000001</v>
+        <v>41.777999999999999</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7409999999999997</v>
+        <v>6.5709999999999997</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.7409999999999997</v>
+        <v>6.5709999999999997</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10694406250000001</v>
+        <v>7.18059375E-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -34753,23 +34753,23 @@
       </c>
       <c r="O8" s="4">
         <f t="shared" si="8"/>
-        <v>63.332999999999998</v>
+        <v>42.667000000000002</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>63.332999999999998</v>
+        <v>42.667000000000002</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8529999999999998</v>
+        <v>6.7060000000000004</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8529999999999998</v>
+        <v>6.7060000000000004</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10885359375000002</v>
+        <v>7.3333906249999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -34827,23 +34827,23 @@
       </c>
       <c r="O9" s="4">
         <f t="shared" si="8"/>
-        <v>64.444000000000003</v>
+        <v>43.555999999999997</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>64.444000000000003</v>
+        <v>43.555999999999997</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9690000000000003</v>
+        <v>6.8410000000000002</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.9690000000000003</v>
+        <v>6.8410000000000002</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.110763125</v>
+        <v>7.4861874999999994E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -34891,23 +34891,23 @@
       </c>
       <c r="O10" s="4">
         <f t="shared" si="8"/>
-        <v>65.555999999999997</v>
+        <v>44.444000000000003</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>65.555999999999997</v>
+        <v>44.444000000000003</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0839999999999996</v>
+        <v>6.976</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0839999999999996</v>
+        <v>6.976</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11267437499999998</v>
+        <v>7.6388125000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -34965,23 +34965,23 @@
       </c>
       <c r="O11" s="4">
         <f t="shared" si="8"/>
-        <v>66.667000000000002</v>
+        <v>45.332999999999998</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>66.667000000000002</v>
+        <v>45.332999999999998</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.194</v>
+        <v>7.1079999999999997</v>
       </c>
       <c r="R11" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.194</v>
+        <v>7.1079999999999997</v>
       </c>
       <c r="S11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11458390624999999</v>
+        <v>7.7916093749999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -35029,23 +35029,23 @@
       </c>
       <c r="O12" s="4">
         <f t="shared" si="8"/>
-        <v>67.778000000000006</v>
+        <v>46.222000000000001</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>67.778000000000006</v>
+        <v>46.222000000000001</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3079999999999998</v>
+        <v>7.242</v>
       </c>
       <c r="R12" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3079999999999998</v>
+        <v>7.242</v>
       </c>
       <c r="S12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11649343750000002</v>
+        <v>7.9444062499999996E-2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -35073,23 +35073,23 @@
       </c>
       <c r="O13" s="4">
         <f t="shared" si="8"/>
-        <v>68.888999999999996</v>
+        <v>47.110999999999997</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>68.888999999999996</v>
+        <v>47.110999999999997</v>
       </c>
       <c r="Q13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4169999999999998</v>
+        <v>7.3760000000000003</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4169999999999998</v>
+        <v>7.3760000000000003</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11840296875</v>
+        <v>8.0972031250000007E-2</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -35118,23 +35118,23 @@
       </c>
       <c r="O14" s="4">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5309999999999997</v>
+        <v>7.5090000000000003</v>
       </c>
       <c r="R14" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5309999999999997</v>
+        <v>7.5090000000000003</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12031250000000002</v>
+        <v>8.2500000000000004E-2</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -35160,23 +35160,23 @@
       </c>
       <c r="O15" s="4">
         <f>IF(M15&lt;=$D$17,ROUND(($D$27+($E$27-$D$27)/13*(M15-12))*100,3),0)</f>
-        <v>69.614999999999995</v>
+        <v>47</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>69.614999999999995</v>
+        <v>47</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.48</v>
+        <v>7.3490000000000002</v>
       </c>
       <c r="R15" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.48</v>
+        <v>7.3490000000000002</v>
       </c>
       <c r="S15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11965078125000002</v>
+        <v>8.0781249999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -35209,38 +35209,38 @@
       </c>
       <c r="O16" s="4">
         <f t="shared" ref="O16:O27" si="11">IF(M16&lt;=$D$17,ROUND(($D$27+($E$27-$D$27)/13*(M16-12))*100,3),0)</f>
-        <v>69.230999999999995</v>
+        <v>46</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>69.230999999999995</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4349999999999996</v>
+        <v>7.1890000000000001</v>
       </c>
       <c r="R16" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4349999999999996</v>
+        <v>7.1890000000000001</v>
       </c>
       <c r="S16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11899078125000001</v>
+        <v>7.9062499999999994E-2</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="str">
         <f>Main!L15</f>
-        <v>Assault Rifle</v>
+        <v>LMG</v>
       </c>
       <c r="D17" s="4">
         <f>VLOOKUP($B$17,weapons!$B$2:$W$999,2,FALSE)</f>
-        <v>30.9</v>
+        <v>25.9</v>
       </c>
       <c r="E17" s="4">
         <f ca="1">VLOOKUP($B$17,weapons!$B$2:$W$999,3,FALSE)*IF($F$17,0,1)*IF(Main!$N$7="Yes",VLOOKUP($B$19,vlookups!$H$25:$J$31,3,FALSE),1)*$B$37</f>
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="F17" s="4" t="b">
         <f>VLOOKUP($B$17,weapons!$B$2:$W$999,4,FALSE)</f>
@@ -35248,7 +35248,7 @@
       </c>
       <c r="G17" s="4">
         <f ca="1">VLOOKUP($B$17,weapons!$B$2:$W$999,5,FALSE)*(1+$D$19)*(1+$E$19)*$F$19*(1+$G$19)</f>
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="I17" s="4" t="str">
         <f>CONCATENATE("Main!",IF($B$2="Shooter 1","B7",IF($B$2="Shooter 2","D7",IF($B$2="Shooter 3","F7","H7"))))</f>
@@ -35264,23 +35264,23 @@
       </c>
       <c r="O17" s="4">
         <f t="shared" si="11"/>
-        <v>68.846000000000004</v>
+        <v>45</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>68.846000000000004</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3890000000000002</v>
+        <v>7.0279999999999996</v>
       </c>
       <c r="R17" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3890000000000002</v>
+        <v>7.0279999999999996</v>
       </c>
       <c r="S17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11832906250000001</v>
+        <v>7.7343750000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -35316,23 +35316,23 @@
       </c>
       <c r="O18" s="4">
         <f t="shared" si="11"/>
-        <v>68.462000000000003</v>
+        <v>44</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>68.462000000000003</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3390000000000004</v>
+        <v>6.8689999999999998</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3390000000000004</v>
+        <v>6.8689999999999998</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1176690625</v>
+        <v>7.5624999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -35374,23 +35374,23 @@
       </c>
       <c r="O19" s="4">
         <f t="shared" si="11"/>
-        <v>68.076999999999998</v>
+        <v>43</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>68.076999999999998</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2939999999999996</v>
+        <v>6.7110000000000003</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.2939999999999996</v>
+        <v>6.7110000000000003</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11700734374999999</v>
+        <v>7.3906250000000007E-2</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -35426,23 +35426,23 @@
       </c>
       <c r="O20" s="4">
         <f t="shared" si="11"/>
-        <v>67.691999999999993</v>
+        <v>42</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>67.691999999999993</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2439999999999998</v>
+        <v>6.5529999999999999</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.2439999999999998</v>
+        <v>6.5529999999999999</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11634562500000001</v>
+        <v>7.2187500000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -35453,11 +35453,11 @@
       </c>
       <c r="D21" s="4">
         <f>IF(VLOOKUP($B$17,weapons!$B$2:$W$999,6,FALSE)="-",1,VLOOKUP($B$17,weapons!$B$2:$W$999,6,FALSE))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" s="4">
         <f>IF(VLOOKUP($B$17,weapons!$B$2:$W$999,7,FALSE)="-",1,VLOOKUP($B$17,weapons!$B$2:$W$999,7,FALSE))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F21" s="4">
         <f>FLOOR(VLOOKUP($B$17,weapons!$B$2:$W$999,8,FALSE)*VLOOKUP(B19,vlookups!$H$25:$K$31,4,FALSE), 1)</f>
@@ -35465,7 +35465,7 @@
       </c>
       <c r="G21" s="4">
         <f>VLOOKUP($B$17,weapons!$B$2:$W$999,9,FALSE)</f>
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I21" s="4" t="str">
         <f>CONCATENATE("Main!",IF($B$2="Shooter 1","B11",IF($B$2="Shooter 2","D11",IF($B$2="Shooter 3","F11","H11"))))</f>
@@ -35484,23 +35484,23 @@
       </c>
       <c r="O21" s="4">
         <f t="shared" si="11"/>
-        <v>67.308000000000007</v>
+        <v>41</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>67.308000000000007</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1989999999999998</v>
+        <v>6.3949999999999996</v>
       </c>
       <c r="R21" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1989999999999998</v>
+        <v>6.3949999999999996</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.115685625</v>
+        <v>7.0468749999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -35536,23 +35536,23 @@
       </c>
       <c r="O22" s="4">
         <f t="shared" si="11"/>
-        <v>66.923000000000002</v>
+        <v>40</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>66.923000000000002</v>
+        <v>40</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.15</v>
+        <v>6.2370000000000001</v>
       </c>
       <c r="R22" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.15</v>
+        <v>6.2370000000000001</v>
       </c>
       <c r="S22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11502390625</v>
+        <v>6.8750000000000006E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -35594,23 +35594,23 @@
       </c>
       <c r="O23" s="4">
         <f t="shared" si="11"/>
-        <v>66.537999999999997</v>
+        <v>39</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>66.537999999999997</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1050000000000004</v>
+        <v>6.0780000000000003</v>
       </c>
       <c r="R23" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1050000000000004</v>
+        <v>6.0780000000000003</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1143621875</v>
+        <v>6.7031250000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -35646,23 +35646,23 @@
       </c>
       <c r="O24" s="4">
         <f t="shared" si="11"/>
-        <v>66.153999999999996</v>
+        <v>38</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>66.153999999999996</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.06</v>
+        <v>5.9210000000000003</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.06</v>
+        <v>5.9210000000000003</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1137021875</v>
+        <v>6.5312499999999996E-2</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -35685,7 +35685,7 @@
       </c>
       <c r="G25" s="4">
         <f>MEDIAN(VLOOKUP($B$17,weapons!$B$2:$W$999,17,FALSE)*IF($F$25,VLOOKUP($B$19,vlookups!$H$25:$I$31,2,FALSE),1)*(1-(1-$B$21)*0.4)/100,1,0.1)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I25" s="4" t="str">
         <f>CONCATENATE("Main!",IF($B$2="Shooter 1","B15",IF($B$2="Shooter 2","D15",IF($B$2="Shooter 3","F15","H15"))))</f>
@@ -35704,23 +35704,23 @@
       </c>
       <c r="O25" s="4">
         <f t="shared" si="11"/>
-        <v>65.769000000000005</v>
+        <v>37</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>65.769000000000005</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0110000000000001</v>
+        <v>5.7640000000000002</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0110000000000001</v>
+        <v>5.7640000000000002</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11304046875000003</v>
+        <v>6.3593750000000004E-2</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -35753,42 +35753,42 @@
       </c>
       <c r="O26" s="4">
         <f t="shared" si="11"/>
-        <v>65.385000000000005</v>
+        <v>36</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>65.385000000000005</v>
+        <v>36</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9669999999999996</v>
+        <v>5.6079999999999997</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.9669999999999996</v>
+        <v>5.6079999999999997</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11238046875</v>
+        <v>6.1874999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="D27" s="4">
         <f>MEDIAN(VLOOKUP($B$17,weapons!$B$2:$W$999,18,FALSE)*IF($F$25,VLOOKUP($B$19,vlookups!$H$25:$I$31,2,FALSE),1)*(1-(1-$B$21)*0.4)/100,1,0.1)</f>
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
       <c r="E27" s="4">
         <f>MEDIAN(VLOOKUP($B$17,weapons!$B$2:$W$999,19,FALSE)*IF($F$25,VLOOKUP($B$19,vlookups!$H$25:$I$31,2,FALSE),1)*(1-(1-$B$21)*0.4)/100,1,0.1)</f>
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
       <c r="F27" s="4">
         <f>MEDIAN(VLOOKUP($B$17,weapons!$B$2:$W$999,20,FALSE)*IF($F$25,VLOOKUP($B$19,vlookups!$H$25:$I$31,2,FALSE),1)*(1-(1-$B$21)*0.4)/100,1,0.1)</f>
-        <v>0.55000000000000004</v>
+        <v>0.26</v>
       </c>
       <c r="G27" s="4">
         <f ca="1">($F$21*$D$21)/($E$17+$G$17+($D$21-1)*($E$21/60))+IF(F23,6/4.5,0)</f>
-        <v>10.879120879120878</v>
+        <v>15.776892430278883</v>
       </c>
       <c r="I27" s="4" t="str">
         <f>CONCATENATE("Main!",IF($B$2="Shooter 1","B17",IF($B$2="Shooter 2","D17",IF($B$2="Shooter 3","F17","H17"))))</f>
@@ -35807,23 +35807,23 @@
       </c>
       <c r="O27" s="4">
         <f t="shared" si="11"/>
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9189999999999996</v>
+        <v>5.4509999999999996</v>
       </c>
       <c r="R27" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.9189999999999996</v>
+        <v>5.4509999999999996</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11171875000000002</v>
+        <v>6.0156250000000008E-2</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -35846,28 +35846,28 @@
         <v>26</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O28" s="4">
         <f>IF(M28&lt;=$D$17,ROUND(($E$27+($F$27-$E$27)/15*(M28-25))*100,3),0)</f>
-        <v>64.332999999999998</v>
-      </c>
-      <c r="P28" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>64.332999999999998</v>
-      </c>
-      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="Q28" s="4" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8449999999999998</v>
-      </c>
-      <c r="R28" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.8449999999999998</v>
-      </c>
-      <c r="S28" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11057234375</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R28" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="S28" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -35880,28 +35880,28 @@
         <v>27</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" ref="O29:O42" si="12">IF(M29&lt;=$D$17,ROUND(($E$27+($F$27-$E$27)/15*(M29-25))*100,3),0)</f>
-        <v>63.667000000000002</v>
-      </c>
-      <c r="P29" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>63.667000000000002</v>
-      </c>
-      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="Q29" s="4" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7679999999999998</v>
-      </c>
-      <c r="R29" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.7679999999999998</v>
-      </c>
-      <c r="S29" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10942765625</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R29" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="S29" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -35910,28 +35910,28 @@
         <v>28</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="12"/>
-        <v>63</v>
-      </c>
-      <c r="P30" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="Q30" s="4" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6950000000000003</v>
-      </c>
-      <c r="R30" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.6950000000000003</v>
-      </c>
-      <c r="S30" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10828124999999998</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R30" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="S30" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -35947,28 +35947,28 @@
         <v>29</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="12"/>
-        <v>62.332999999999998</v>
-      </c>
-      <c r="P31" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>62.332999999999998</v>
-      </c>
-      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="Q31" s="4" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6210000000000004</v>
-      </c>
-      <c r="R31" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.6210000000000004</v>
-      </c>
-      <c r="S31" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10713484375000001</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R31" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="S31" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -35988,28 +35988,28 @@
         <v>30</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="12"/>
-        <v>61.667000000000002</v>
-      </c>
-      <c r="P32" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>61.667000000000002</v>
-      </c>
-      <c r="Q32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="Q32" s="4" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5449999999999999</v>
-      </c>
-      <c r="R32" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.5449999999999999</v>
-      </c>
-      <c r="S32" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10599015625000001</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R32" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="S32" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -36790,23 +36790,23 @@
       </c>
       <c r="O2" s="4">
         <f>IF(M2&lt;=$D$17,$G$25*100,0)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="P2" s="4">
         <f ca="1">IF(M2&lt;=$D$17,ROUND(MIN((IF(AND($D$23,M2&gt;$D$25),1,($N2/100))*($O2/100)+(1-IF(AND($D$23,M2&gt;$D$25),1,($N2/100))*($O2/100))*($G$23-1)/(IF($E$25="-",9,IF($E$25=0,2,$E$25))-1))*IF(OR($D$25="-",$M2&lt;=$D$25),1,$G$23/IF($E$25=0,1,$E$25)),1)*100,3),"-")</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="4">
         <f ca="1">ROUND((($F$21*$D$21)/($E$17+$G$17+($D$21-1)*($E$21/60)+(IF(OR($B$23,$B$25),MAX(ROUND($M2/($G$21/100),0),1)/60,0)*S2)+IF($D$23,$E$23/60,0))+IF($F$23,6/4.5,0))*O2/100,3)</f>
-        <v>6.3090000000000002</v>
+        <v>6.524</v>
       </c>
       <c r="R2" s="4">
         <f ca="1">IF(M2&lt;=$D$17,ROUND((($F$21*$D$21)/($E$17+$G$17+($D$21-1)*($E$21/60)+(IF(OR($B$23,$B$25),MAX(ROUND($M2/($G$21/100),0),1)/60,0)*S2)+IF($D$23,$E$23/60,0))+IF($F$23,6/4.5,0))*P2/100,3),"-")</f>
-        <v>6.3090000000000002</v>
+        <v>6.524</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" ref="S2:S33" ca="1" si="0">MIN(1/($D$29/($F$21*$P2/100))^IF($B$25,1,0),1)</f>
-        <v>6.8750000000000006E-2</v>
+        <v>0.10312499999999999</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -36852,23 +36852,23 @@
       </c>
       <c r="O3" s="4">
         <f>IF(M3&lt;=$D$17,$G$25*100,0)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P52" ca="1" si="2">IF(M3&lt;=$D$17,ROUND(MIN((IF(AND($D$23,M3&gt;$D$25),1,($N3/100))*($O3/100)+(1-IF(AND($D$23,M3&gt;$D$25),1,($N3/100))*($O3/100))*($G$23-1)/(IF($E$25="-",9,IF($E$25=0,2,$E$25))-1))*IF(OR($D$25="-",$M3&lt;=$D$25),1,$G$23/IF($E$25=0,1,$E$25)),1)*100,3),"-")</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" ref="Q3:Q52" ca="1" si="3">ROUND((($F$21*$D$21)/($E$17+$G$17+($D$21-1)*($E$21/60)+(IF(OR($B$23,$B$25),MAX(ROUND($M3/($G$21/100),0),1)/60,0)*S3)+IF($D$23,$E$23/60,0))+IF($F$23,6/4.5,0))*O3/100,3)</f>
-        <v>6.3070000000000004</v>
+        <v>6.524</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" ref="R3:R52" ca="1" si="4">IF(M3&lt;=$D$17,ROUND((($F$21*$D$21)/($E$17+$G$17+($D$21-1)*($E$21/60)+(IF(OR($B$23,$B$25),MAX(ROUND($M3/($G$21/100),0),1)/60,0)*S3)+IF($D$23,$E$23/60,0))+IF($F$23,6/4.5,0))*P3/100,3),"-")</f>
-        <v>6.3070000000000004</v>
+        <v>6.524</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8750000000000006E-2</v>
+        <v>0.10312499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -36926,23 +36926,23 @@
       </c>
       <c r="O4" s="4">
         <f>IF(M4&lt;=$D$17,$G$25*100,0)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3040000000000003</v>
+        <v>6.516</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.3040000000000003</v>
+        <v>6.516</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8750000000000006E-2</v>
+        <v>0.10312499999999999</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -36990,23 +36990,23 @@
       </c>
       <c r="O5" s="4">
         <f>IF(M5&lt;=$D$17,$G$25*100,0)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2990000000000004</v>
+        <v>6.5129999999999999</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.2990000000000004</v>
+        <v>6.5129999999999999</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8750000000000006E-2</v>
+        <v>0.10312499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -37063,23 +37063,23 @@
       </c>
       <c r="O6" s="4">
         <f>IF(M6&lt;=$D$17,ROUND(($G$25+($D$27-$G$25)/9*(M6-3))*100,3),0)</f>
-        <v>40.889000000000003</v>
+        <v>61.110999999999997</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>40.889000000000003</v>
+        <v>61.110999999999997</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4349999999999996</v>
+        <v>6.625</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4349999999999996</v>
+        <v>6.625</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0277968750000003E-2</v>
+        <v>0.10503453124999999</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -37127,23 +37127,23 @@
       </c>
       <c r="O7" s="4">
         <f t="shared" ref="O7:O14" si="8">IF(M7&lt;=$D$17,ROUND(($G$25+($D$27-$G$25)/9*(M7-3))*100,3),0)</f>
-        <v>41.777999999999999</v>
+        <v>62.222000000000001</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>41.777999999999999</v>
+        <v>62.222000000000001</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5709999999999997</v>
+        <v>6.7409999999999997</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.5709999999999997</v>
+        <v>6.7409999999999997</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.18059375E-2</v>
+        <v>0.10694406250000001</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -37189,23 +37189,23 @@
       </c>
       <c r="O8" s="4">
         <f t="shared" si="8"/>
-        <v>42.667000000000002</v>
+        <v>63.332999999999998</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42.667000000000002</v>
+        <v>63.332999999999998</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7060000000000004</v>
+        <v>6.8529999999999998</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.7060000000000004</v>
+        <v>6.8529999999999998</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3333906249999997E-2</v>
+        <v>0.10885359375000002</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -37263,23 +37263,23 @@
       </c>
       <c r="O9" s="4">
         <f t="shared" si="8"/>
-        <v>43.555999999999997</v>
+        <v>64.444000000000003</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43.555999999999997</v>
+        <v>64.444000000000003</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8410000000000002</v>
+        <v>6.9690000000000003</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8410000000000002</v>
+        <v>6.9690000000000003</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4861874999999994E-2</v>
+        <v>0.110763125</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -37327,23 +37327,23 @@
       </c>
       <c r="O10" s="4">
         <f t="shared" si="8"/>
-        <v>44.444000000000003</v>
+        <v>65.555999999999997</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44.444000000000003</v>
+        <v>65.555999999999997</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.976</v>
+        <v>7.0839999999999996</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.976</v>
+        <v>7.0839999999999996</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6388125000000001E-2</v>
+        <v>0.11267437499999998</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -37401,23 +37401,23 @@
       </c>
       <c r="O11" s="4">
         <f t="shared" si="8"/>
-        <v>45.332999999999998</v>
+        <v>66.667000000000002</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45.332999999999998</v>
+        <v>66.667000000000002</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1079999999999997</v>
+        <v>7.194</v>
       </c>
       <c r="R11" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1079999999999997</v>
+        <v>7.194</v>
       </c>
       <c r="S11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7916093749999998E-2</v>
+        <v>0.11458390624999999</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -37465,23 +37465,23 @@
       </c>
       <c r="O12" s="4">
         <f t="shared" si="8"/>
-        <v>46.222000000000001</v>
+        <v>67.778000000000006</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>46.222000000000001</v>
+        <v>67.778000000000006</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7.242</v>
+        <v>7.3079999999999998</v>
       </c>
       <c r="R12" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.242</v>
+        <v>7.3079999999999998</v>
       </c>
       <c r="S12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9444062499999996E-2</v>
+        <v>0.11649343750000002</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -37509,23 +37509,23 @@
       </c>
       <c r="O13" s="4">
         <f t="shared" si="8"/>
-        <v>47.110999999999997</v>
+        <v>68.888999999999996</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>47.110999999999997</v>
+        <v>68.888999999999996</v>
       </c>
       <c r="Q13" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3760000000000003</v>
+        <v>7.4169999999999998</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3760000000000003</v>
+        <v>7.4169999999999998</v>
       </c>
       <c r="S13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0972031250000007E-2</v>
+        <v>0.11840296875</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -37554,23 +37554,23 @@
       </c>
       <c r="O14" s="4">
         <f t="shared" si="8"/>
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7.5090000000000003</v>
+        <v>7.5309999999999997</v>
       </c>
       <c r="R14" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5090000000000003</v>
+        <v>7.5309999999999997</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2500000000000004E-2</v>
+        <v>0.12031250000000002</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -37596,23 +37596,23 @@
       </c>
       <c r="O15" s="4">
         <f>IF(M15&lt;=$D$17,ROUND(($D$27+($E$27-$D$27)/13*(M15-12))*100,3),0)</f>
-        <v>47</v>
+        <v>69.614999999999995</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>69.614999999999995</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3490000000000002</v>
+        <v>7.48</v>
       </c>
       <c r="R15" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3490000000000002</v>
+        <v>7.48</v>
       </c>
       <c r="S15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0781249999999999E-2</v>
+        <v>0.11965078125000002</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -37645,38 +37645,38 @@
       </c>
       <c r="O16" s="4">
         <f t="shared" ref="O16:O27" si="11">IF(M16&lt;=$D$17,ROUND(($D$27+($E$27-$D$27)/13*(M16-12))*100,3),0)</f>
-        <v>46</v>
+        <v>69.230999999999995</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>69.230999999999995</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1890000000000001</v>
+        <v>7.4349999999999996</v>
       </c>
       <c r="R16" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1890000000000001</v>
+        <v>7.4349999999999996</v>
       </c>
       <c r="S16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9062499999999994E-2</v>
+        <v>0.11899078125000001</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="str">
         <f>Main!N15</f>
-        <v>LMG</v>
+        <v>Assault Rifle</v>
       </c>
       <c r="D17" s="4">
         <f>VLOOKUP($B$17,weapons!$B$2:$W$999,2,FALSE)</f>
-        <v>25.9</v>
+        <v>30.9</v>
       </c>
       <c r="E17" s="4">
         <f ca="1">VLOOKUP($B$17,weapons!$B$2:$W$999,3,FALSE)*IF($F$17,0,1)*IF(Main!$N$7="Yes",VLOOKUP($B$19,vlookups!$H$25:$J$31,3,FALSE),1)*$B$37</f>
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="F17" s="4" t="b">
         <f>VLOOKUP($B$17,weapons!$B$2:$W$999,4,FALSE)</f>
@@ -37684,7 +37684,7 @@
       </c>
       <c r="G17" s="4">
         <f ca="1">VLOOKUP($B$17,weapons!$B$2:$W$999,5,FALSE)*(1+$D$19)*(1+$E$19)*$F$19*(1+$G$19)</f>
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="I17" s="4" t="str">
         <f>CONCATENATE("Main!",IF($B$2="Shooter 1","B7",IF($B$2="Shooter 2","D7",IF($B$2="Shooter 3","F7","H7"))))</f>
@@ -37700,23 +37700,23 @@
       </c>
       <c r="O17" s="4">
         <f t="shared" si="11"/>
-        <v>45</v>
+        <v>68.846000000000004</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>68.846000000000004</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0279999999999996</v>
+        <v>7.3890000000000002</v>
       </c>
       <c r="R17" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0279999999999996</v>
+        <v>7.3890000000000002</v>
       </c>
       <c r="S17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7343750000000003E-2</v>
+        <v>0.11832906250000001</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -37752,23 +37752,23 @@
       </c>
       <c r="O18" s="4">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>68.462000000000003</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>68.462000000000003</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8689999999999998</v>
+        <v>7.3390000000000004</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8689999999999998</v>
+        <v>7.3390000000000004</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5624999999999998E-2</v>
+        <v>0.1176690625</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -37810,23 +37810,23 @@
       </c>
       <c r="O19" s="4">
         <f t="shared" si="11"/>
-        <v>43</v>
+        <v>68.076999999999998</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>68.076999999999998</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7110000000000003</v>
+        <v>7.2939999999999996</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.7110000000000003</v>
+        <v>7.2939999999999996</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3906250000000007E-2</v>
+        <v>0.11700734374999999</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -37862,23 +37862,23 @@
       </c>
       <c r="O20" s="4">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>67.691999999999993</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>67.691999999999993</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5529999999999999</v>
+        <v>7.2439999999999998</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.5529999999999999</v>
+        <v>7.2439999999999998</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2187500000000002E-2</v>
+        <v>0.11634562500000001</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -37889,11 +37889,11 @@
       </c>
       <c r="D21" s="4">
         <f>IF(VLOOKUP($B$17,weapons!$B$2:$W$999,6,FALSE)="-",1,VLOOKUP($B$17,weapons!$B$2:$W$999,6,FALSE))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E21" s="4">
         <f>IF(VLOOKUP($B$17,weapons!$B$2:$W$999,7,FALSE)="-",1,VLOOKUP($B$17,weapons!$B$2:$W$999,7,FALSE))</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F21" s="4">
         <f>FLOOR(VLOOKUP($B$17,weapons!$B$2:$W$999,8,FALSE)*VLOOKUP(B19,vlookups!$H$25:$K$31,4,FALSE), 1)</f>
@@ -37901,7 +37901,7 @@
       </c>
       <c r="G21" s="4">
         <f>VLOOKUP($B$17,weapons!$B$2:$W$999,9,FALSE)</f>
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="I21" s="4" t="str">
         <f>CONCATENATE("Main!",IF($B$2="Shooter 1","B11",IF($B$2="Shooter 2","D11",IF($B$2="Shooter 3","F11","H11"))))</f>
@@ -37920,23 +37920,23 @@
       </c>
       <c r="O21" s="4">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>67.308000000000007</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>67.308000000000007</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3949999999999996</v>
+        <v>7.1989999999999998</v>
       </c>
       <c r="R21" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.3949999999999996</v>
+        <v>7.1989999999999998</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0468749999999997E-2</v>
+        <v>0.115685625</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -37972,23 +37972,23 @@
       </c>
       <c r="O22" s="4">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>66.923000000000002</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>66.923000000000002</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2370000000000001</v>
+        <v>7.15</v>
       </c>
       <c r="R22" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.2370000000000001</v>
+        <v>7.15</v>
       </c>
       <c r="S22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8750000000000006E-2</v>
+        <v>0.11502390625</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -38030,23 +38030,23 @@
       </c>
       <c r="O23" s="4">
         <f t="shared" si="11"/>
-        <v>39</v>
+        <v>66.537999999999997</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>66.537999999999997</v>
       </c>
       <c r="Q23" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0780000000000003</v>
+        <v>7.1050000000000004</v>
       </c>
       <c r="R23" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0780000000000003</v>
+        <v>7.1050000000000004</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7031250000000001E-2</v>
+        <v>0.1143621875</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -38082,23 +38082,23 @@
       </c>
       <c r="O24" s="4">
         <f t="shared" si="11"/>
-        <v>38</v>
+        <v>66.153999999999996</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>66.153999999999996</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9210000000000003</v>
+        <v>7.06</v>
       </c>
       <c r="R24" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9210000000000003</v>
+        <v>7.06</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5312499999999996E-2</v>
+        <v>0.1137021875</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -38121,7 +38121,7 @@
       </c>
       <c r="G25" s="4">
         <f>MEDIAN(VLOOKUP($B$17,weapons!$B$2:$W$999,17,FALSE)*IF($F$25,VLOOKUP($B$19,vlookups!$H$25:$I$31,2,FALSE),1)*(1-(1-$B$21)*0.4)/100,1,0.1)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I25" s="4" t="str">
         <f>CONCATENATE("Main!",IF($B$2="Shooter 1","B15",IF($B$2="Shooter 2","D15",IF($B$2="Shooter 3","F15","H15"))))</f>
@@ -38140,23 +38140,23 @@
       </c>
       <c r="O25" s="4">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>65.769000000000005</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>65.769000000000005</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7640000000000002</v>
+        <v>7.0110000000000001</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5.7640000000000002</v>
+        <v>7.0110000000000001</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3593750000000004E-2</v>
+        <v>0.11304046875000003</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -38189,42 +38189,42 @@
       </c>
       <c r="O26" s="4">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>65.385000000000005</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>65.385000000000005</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6079999999999997</v>
+        <v>6.9669999999999996</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5.6079999999999997</v>
+        <v>6.9669999999999996</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1874999999999999E-2</v>
+        <v>0.11238046875</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="D27" s="4">
         <f>MEDIAN(VLOOKUP($B$17,weapons!$B$2:$W$999,18,FALSE)*IF($F$25,VLOOKUP($B$19,vlookups!$H$25:$I$31,2,FALSE),1)*(1-(1-$B$21)*0.4)/100,1,0.1)</f>
-        <v>0.48</v>
+        <v>0.7</v>
       </c>
       <c r="E27" s="4">
         <f>MEDIAN(VLOOKUP($B$17,weapons!$B$2:$W$999,19,FALSE)*IF($F$25,VLOOKUP($B$19,vlookups!$H$25:$I$31,2,FALSE),1)*(1-(1-$B$21)*0.4)/100,1,0.1)</f>
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="F27" s="4">
         <f>MEDIAN(VLOOKUP($B$17,weapons!$B$2:$W$999,20,FALSE)*IF($F$25,VLOOKUP($B$19,vlookups!$H$25:$I$31,2,FALSE),1)*(1-(1-$B$21)*0.4)/100,1,0.1)</f>
-        <v>0.26</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G27" s="4">
         <f ca="1">($F$21*$D$21)/($E$17+$G$17+($D$21-1)*($E$21/60))+IF(F23,6/4.5,0)</f>
-        <v>15.776892430278883</v>
+        <v>10.879120879120878</v>
       </c>
       <c r="I27" s="4" t="str">
         <f>CONCATENATE("Main!",IF($B$2="Shooter 1","B17",IF($B$2="Shooter 2","D17",IF($B$2="Shooter 3","F17","H17"))))</f>
@@ -38243,23 +38243,23 @@
       </c>
       <c r="O27" s="4">
         <f t="shared" si="11"/>
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4509999999999996</v>
+        <v>6.9189999999999996</v>
       </c>
       <c r="R27" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>5.4509999999999996</v>
+        <v>6.9189999999999996</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0156250000000008E-2</v>
+        <v>0.11171875000000002</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -38282,28 +38282,28 @@
         <v>26</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="O28" s="4">
         <f>IF(M28&lt;=$D$17,ROUND(($E$27+($F$27-$E$27)/15*(M28-25))*100,3),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="Q28" s="4" t="e">
+        <v>64.332999999999998</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>64.332999999999998</v>
+      </c>
+      <c r="Q28" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R28" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="S28" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>6.8449999999999998</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.8449999999999998</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11057234375</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -38316,28 +38316,28 @@
         <v>27</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" ref="O29:O42" si="12">IF(M29&lt;=$D$17,ROUND(($E$27+($F$27-$E$27)/15*(M29-25))*100,3),0)</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="Q29" s="4" t="e">
+        <v>63.667000000000002</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>63.667000000000002</v>
+      </c>
+      <c r="Q29" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R29" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="S29" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>6.7679999999999998</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.7679999999999998</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10942765625</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -38346,28 +38346,28 @@
         <v>28</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="Q30" s="4" t="e">
+        <v>63</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="Q30" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R30" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="S30" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>6.6950000000000003</v>
+      </c>
+      <c r="R30" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.6950000000000003</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10828124999999998</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -38383,28 +38383,28 @@
         <v>29</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="Q31" s="4" t="e">
+        <v>62.332999999999998</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>62.332999999999998</v>
+      </c>
+      <c r="Q31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R31" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="S31" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>6.6210000000000004</v>
+      </c>
+      <c r="R31" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.6210000000000004</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10713484375000001</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -38424,28 +38424,28 @@
         <v>30</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="Q32" s="4" t="e">
+        <v>61.667000000000002</v>
+      </c>
+      <c r="P32" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>61.667000000000002</v>
+      </c>
+      <c r="Q32" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R32" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="S32" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>6.5449999999999999</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.5449999999999999</v>
+      </c>
+      <c r="S32" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10599015625000001</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
